--- a/AAII_Financials/Quarterly/THCT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/THCT_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="92">
   <si>
     <t>THCT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,66 +665,70 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43861</v>
+      </c>
+      <c r="E7" s="2">
         <v>43769</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43677</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43585</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43496</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43404</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43312</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43220</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41759</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41670</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41578</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>41486</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -761,8 +765,11 @@
       <c r="N8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -799,8 +806,11 @@
       <c r="N9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -837,8 +847,11 @@
       <c r="N10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -853,8 +866,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -891,8 +905,11 @@
       <c r="N12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -929,8 +946,11 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -938,25 +958,25 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>-7700</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
-        <v>2500</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>4900</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="3">
         <v>5200</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>4</v>
@@ -967,8 +987,11 @@
       <c r="N14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -993,8 +1016,8 @@
       <c r="J15" s="3">
         <v>0</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>4</v>
+      <c r="K15" s="3">
+        <v>0</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>4</v>
@@ -1005,8 +1028,11 @@
       <c r="N15" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1018,46 +1044,50 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>400</v>
+      </c>
+      <c r="E17" s="3">
         <v>200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>-2800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>18700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>5500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>200</v>
-      </c>
-      <c r="K17" s="3">
-        <v>100</v>
       </c>
       <c r="L17" s="3">
         <v>100</v>
       </c>
       <c r="M17" s="3">
+        <v>100</v>
+      </c>
+      <c r="N17" s="3">
         <v>200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1065,37 +1095,40 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F18" s="3">
         <v>2800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-18700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-2700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-5500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-200</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-100</v>
       </c>
       <c r="L18" s="3">
         <v>-100</v>
       </c>
       <c r="M18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N18" s="3">
         <v>-200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1110,8 +1143,9 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1122,14 +1156,14 @@
         <v>100</v>
       </c>
       <c r="F20" s="3">
+        <v>100</v>
+      </c>
+      <c r="G20" s="3">
         <v>-3200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-800</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
@@ -1146,10 +1180,13 @@
         <v>0</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1157,26 +1194,26 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3">
         <v>2900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-21900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-3500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-5500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-200</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1186,8 +1223,11 @@
       <c r="N21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1198,11 +1238,11 @@
         <v>100</v>
       </c>
       <c r="F22" s="3">
+        <v>100</v>
+      </c>
+      <c r="G22" s="3">
         <v>200</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
       <c r="H22" s="3">
         <v>0</v>
       </c>
@@ -1224,46 +1264,52 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>2800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-22100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-3500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-5500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-200</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-100</v>
       </c>
       <c r="L23" s="3">
         <v>-100</v>
       </c>
       <c r="M23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N23" s="3">
         <v>-200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1300,8 +1346,11 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1338,84 +1387,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>2800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-22100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-3500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-5500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-200</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-100</v>
       </c>
       <c r="L26" s="3">
         <v>-100</v>
       </c>
       <c r="M26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N26" s="3">
         <v>-200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>2800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-22100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-3500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-5500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-200</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-100</v>
       </c>
       <c r="L27" s="3">
         <v>-100</v>
       </c>
       <c r="M27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N27" s="3">
         <v>-200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1452,8 +1510,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1490,8 +1551,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1528,8 +1592,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1566,8 +1633,11 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1578,14 +1648,14 @@
         <v>-100</v>
       </c>
       <c r="F32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G32" s="3">
         <v>3200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>800</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
@@ -1602,48 +1672,54 @@
         <v>0</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>2800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-22100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-3500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-5500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-200</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-100</v>
       </c>
       <c r="L33" s="3">
         <v>-100</v>
       </c>
       <c r="M33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N33" s="3">
         <v>-200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1680,89 +1756,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>2800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-22100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-3500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-5500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-200</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-100</v>
       </c>
       <c r="L35" s="3">
         <v>-100</v>
       </c>
       <c r="M35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N35" s="3">
         <v>-200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43861</v>
+      </c>
+      <c r="E38" s="2">
         <v>43769</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43677</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43585</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43496</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43404</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43312</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43220</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41759</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41670</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41578</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>41486</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1777,8 +1862,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1793,34 +1879,35 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>0</v>
+      </c>
+      <c r="E41" s="3">
         <v>100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>300</v>
       </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
       <c r="G41" s="3">
         <v>0</v>
       </c>
       <c r="H41" s="3">
         <v>0</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>4</v>
+      <c r="I41" s="3">
+        <v>0</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K41" s="3">
-        <v>0</v>
+      <c r="K41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L41" s="3">
         <v>0</v>
@@ -1831,8 +1918,11 @@
       <c r="N41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1869,8 +1959,11 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1907,8 +2000,11 @@
       <c r="N43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1945,25 +2041,28 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E45" s="3">
         <v>100</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>4</v>
+      <c r="F45" s="3">
+        <v>100</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H45" s="3">
+        <v>0</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>4</v>
@@ -1971,8 +2070,8 @@
       <c r="J45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K45" s="3">
-        <v>0</v>
+      <c r="K45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L45" s="3">
         <v>0</v>
@@ -1983,34 +2082,37 @@
       <c r="N45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>0</v>
+      </c>
+      <c r="E46" s="3">
         <v>200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>500</v>
       </c>
-      <c r="F46" s="3">
-        <v>0</v>
-      </c>
       <c r="G46" s="3">
         <v>0</v>
       </c>
       <c r="H46" s="3">
         <v>0</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>4</v>
+      <c r="I46" s="3">
+        <v>0</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K46" s="3">
-        <v>0</v>
+      <c r="K46" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L46" s="3">
         <v>0</v>
@@ -2021,16 +2123,19 @@
       <c r="N46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E47" s="3">
-        <v>0</v>
+      <c r="D47" s="3">
+        <v>200</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F47" s="3">
         <v>0</v>
@@ -2039,11 +2144,11 @@
         <v>0</v>
       </c>
       <c r="H47" s="3">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3">
         <v>2400</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J47" s="3" t="s">
         <v>4</v>
       </c>
@@ -2059,8 +2164,11 @@
       <c r="N47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2077,11 +2185,11 @@
         <v>0</v>
       </c>
       <c r="H48" s="3">
+        <v>0</v>
+      </c>
+      <c r="I48" s="3">
         <v>100</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>4</v>
       </c>
@@ -2097,8 +2205,11 @@
       <c r="N48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2117,14 +2228,14 @@
       <c r="H49" s="3">
         <v>0</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>4</v>
+      <c r="I49" s="3">
+        <v>0</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K49" s="3">
-        <v>200</v>
+      <c r="K49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L49" s="3">
         <v>200</v>
@@ -2135,8 +2246,11 @@
       <c r="N49" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2173,8 +2287,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2211,17 +2328,20 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
+      <c r="D52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E52" s="3">
         <v>200</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F52" s="3" t="s">
         <v>4</v>
       </c>
@@ -2237,8 +2357,8 @@
       <c r="J52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
+      <c r="K52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L52" s="3">
         <v>0</v>
@@ -2249,8 +2369,11 @@
       <c r="N52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2287,34 +2410,37 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>200</v>
+      </c>
+      <c r="E54" s="3">
         <v>400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>500</v>
-      </c>
-      <c r="F54" s="3">
-        <v>100</v>
       </c>
       <c r="G54" s="3">
         <v>100</v>
       </c>
       <c r="H54" s="3">
+        <v>100</v>
+      </c>
+      <c r="I54" s="3">
         <v>2500</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K54" s="3">
-        <v>200</v>
+      <c r="K54" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L54" s="3">
         <v>200</v>
@@ -2325,8 +2451,11 @@
       <c r="N54" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2341,8 +2470,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2357,16 +2487,17 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>500</v>
+      </c>
+      <c r="E57" s="3">
         <v>400</v>
-      </c>
-      <c r="E57" s="3">
-        <v>200</v>
       </c>
       <c r="F57" s="3">
         <v>200</v>
@@ -2375,11 +2506,11 @@
         <v>200</v>
       </c>
       <c r="H57" s="3">
+        <v>200</v>
+      </c>
+      <c r="I57" s="3">
         <v>100</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>4</v>
       </c>
@@ -2395,16 +2526,19 @@
       <c r="N57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>400</v>
+      </c>
+      <c r="E58" s="3">
         <v>300</v>
-      </c>
-      <c r="E58" s="3">
-        <v>200</v>
       </c>
       <c r="F58" s="3">
         <v>200</v>
@@ -2415,52 +2549,55 @@
       <c r="H58" s="3">
         <v>200</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>4</v>
+      <c r="I58" s="3">
+        <v>200</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K58" s="3">
-        <v>100</v>
+      <c r="K58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L58" s="3">
         <v>100</v>
       </c>
       <c r="M58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>900</v>
+      </c>
+      <c r="E59" s="3">
         <v>600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>400</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K59" s="3">
-        <v>200</v>
+      <c r="K59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L59" s="3">
         <v>200</v>
@@ -2469,48 +2606,54 @@
         <v>200</v>
       </c>
       <c r="N59" s="3">
+        <v>200</v>
+      </c>
+      <c r="O59" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1300</v>
+        <v>1800</v>
       </c>
       <c r="E60" s="3">
         <v>1300</v>
       </c>
       <c r="F60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G60" s="3">
         <v>1000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>700</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J60" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K60" s="3">
-        <v>300</v>
+      <c r="K60" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L60" s="3">
         <v>300</v>
       </c>
       <c r="M60" s="3">
+        <v>300</v>
+      </c>
+      <c r="N60" s="3">
         <v>200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2542,13 +2685,16 @@
         <v>0</v>
       </c>
       <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>100</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2585,8 +2731,11 @@
       <c r="N62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2623,8 +2772,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2661,8 +2813,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2699,46 +2854,52 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1300</v>
+        <v>1800</v>
       </c>
       <c r="E66" s="3">
         <v>1300</v>
       </c>
       <c r="F66" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G66" s="3">
         <v>1000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>700</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K66" s="3">
-        <v>300</v>
+      <c r="K66" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L66" s="3">
         <v>300</v>
       </c>
       <c r="M66" s="3">
+        <v>300</v>
+      </c>
+      <c r="N66" s="3">
         <v>200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2753,8 +2914,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2791,8 +2953,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2829,8 +2994,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2867,8 +3035,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2905,46 +3076,52 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-33700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-32800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-32700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-35500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-13400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-9800</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K72" s="3">
+      <c r="K72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L72" s="3">
         <v>-2000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-1900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-1700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2981,8 +3158,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3019,8 +3199,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3057,34 +3240,37 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E76" s="3">
         <v>-900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-1500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1800</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K76" s="3">
-        <v>-100</v>
+      <c r="K76" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L76" s="3">
         <v>-100</v>
@@ -3093,10 +3279,13 @@
         <v>-100</v>
       </c>
       <c r="N76" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="O76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3133,89 +3322,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43861</v>
+      </c>
+      <c r="E80" s="2">
         <v>43769</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43677</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43585</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43496</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43404</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43312</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43220</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41759</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41670</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41578</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>41486</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>2800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-22100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-3500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-5500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-200</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-100</v>
       </c>
       <c r="L81" s="3">
         <v>-100</v>
       </c>
       <c r="M81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N81" s="3">
         <v>-200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3230,8 +3428,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3256,8 +3455,8 @@
       <c r="J83" s="3">
         <v>0</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>4</v>
+      <c r="K83" s="3">
+        <v>0</v>
       </c>
       <c r="L83" s="3" t="s">
         <v>4</v>
@@ -3268,8 +3467,11 @@
       <c r="N83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3306,8 +3508,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3344,8 +3549,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3382,8 +3590,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3420,8 +3631,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3458,8 +3672,11 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3467,26 +3684,26 @@
         <v>-100</v>
       </c>
       <c r="E89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F89" s="3">
         <v>-200</v>
       </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
       <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
         <v>-100</v>
       </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
       <c r="I89" s="3">
         <v>0</v>
       </c>
       <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
         <v>-100</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
       <c r="L89" s="3">
         <v>0</v>
       </c>
@@ -3496,8 +3713,11 @@
       <c r="N89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3512,16 +3732,17 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
+      <c r="E91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F91" s="3">
         <v>0</v>
@@ -3538,8 +3759,8 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>4</v>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>4</v>
@@ -3550,8 +3771,11 @@
       <c r="N91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3588,8 +3812,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3626,17 +3853,20 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
         <v>-200</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
         <v>0</v>
       </c>
@@ -3664,8 +3894,11 @@
       <c r="N94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3680,8 +3913,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3718,8 +3952,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3756,8 +3993,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3794,8 +4034,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3832,26 +4075,29 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>500</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>100</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
@@ -3870,8 +4116,11 @@
       <c r="N100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3908,20 +4157,23 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
         <v>-300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>300</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
         <v>0</v>
       </c>
@@ -3944,6 +4196,9 @@
         <v>0</v>
       </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/THCT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/THCT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="92">
   <si>
     <t>THCT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,70 +665,73 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43951</v>
+      </c>
+      <c r="E7" s="2">
         <v>43861</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43769</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43677</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43585</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43496</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43404</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43312</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43220</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41759</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41670</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>41578</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>41486</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -768,8 +771,11 @@
       <c r="O8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -809,8 +815,11 @@
       <c r="O9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -850,8 +859,11 @@
       <c r="O10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -867,8 +879,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -908,8 +921,11 @@
       <c r="O12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -949,37 +965,40 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>-7700</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>4900</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14" s="3">
         <v>5200</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>4</v>
@@ -990,8 +1009,11 @@
       <c r="O14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1019,8 +1041,8 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>4</v>
+      <c r="L15" s="3">
+        <v>0</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>4</v>
@@ -1031,8 +1053,11 @@
       <c r="O15" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1045,49 +1070,53 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>700</v>
+      </c>
+      <c r="E17" s="3">
         <v>400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>-2800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>18700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>5500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>200</v>
-      </c>
-      <c r="L17" s="3">
-        <v>100</v>
       </c>
       <c r="M17" s="3">
         <v>100</v>
       </c>
       <c r="N17" s="3">
+        <v>100</v>
+      </c>
+      <c r="O17" s="3">
         <v>200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1095,40 +1124,43 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F18" s="3">
         <v>-200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-18700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-2700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-5500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-200</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-100</v>
       </c>
       <c r="M18" s="3">
         <v>-100</v>
       </c>
       <c r="N18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O18" s="3">
         <v>-200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1144,8 +1176,9 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1153,20 +1186,20 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>100</v>
+        <v>-400</v>
       </c>
       <c r="F20" s="3">
         <v>100</v>
       </c>
       <c r="G20" s="3">
+        <v>100</v>
+      </c>
+      <c r="H20" s="3">
         <v>-3200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-800</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
@@ -1183,10 +1216,13 @@
         <v>0</v>
       </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1194,29 +1230,29 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>0</v>
+        <v>-700</v>
       </c>
       <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3">
         <v>2900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-21900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-3500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-5500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-200</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1226,8 +1262,11 @@
       <c r="O21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1241,11 +1280,11 @@
         <v>100</v>
       </c>
       <c r="G22" s="3">
+        <v>100</v>
+      </c>
+      <c r="H22" s="3">
         <v>200</v>
       </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
       <c r="I22" s="3">
         <v>0</v>
       </c>
@@ -1267,49 +1306,55 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>2800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-22100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-3500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-5500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-200</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-100</v>
       </c>
       <c r="M23" s="3">
         <v>-100</v>
       </c>
       <c r="N23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O23" s="3">
         <v>-200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1349,8 +1394,11 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1390,90 +1438,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>2800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-22100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-3500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-5500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-200</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-100</v>
       </c>
       <c r="M26" s="3">
         <v>-100</v>
       </c>
       <c r="N26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O26" s="3">
         <v>-200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>2800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-22100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-3500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-5500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-200</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-100</v>
       </c>
       <c r="M27" s="3">
         <v>-100</v>
       </c>
       <c r="N27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O27" s="3">
         <v>-200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1513,8 +1570,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1554,8 +1614,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1595,8 +1658,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1636,8 +1702,11 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1645,20 +1714,20 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>-100</v>
+        <v>400</v>
       </c>
       <c r="F32" s="3">
         <v>-100</v>
       </c>
       <c r="G32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H32" s="3">
         <v>3200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>800</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
@@ -1675,51 +1744,57 @@
         <v>0</v>
       </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>2800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-22100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-3500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-5500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-200</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-100</v>
       </c>
       <c r="M33" s="3">
         <v>-100</v>
       </c>
       <c r="N33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O33" s="3">
         <v>-200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1759,95 +1834,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>2800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-22100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-3500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-5500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-200</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-100</v>
       </c>
       <c r="M35" s="3">
         <v>-100</v>
       </c>
       <c r="N35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O35" s="3">
         <v>-200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43951</v>
+      </c>
+      <c r="E38" s="2">
         <v>43861</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43769</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43677</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43585</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43496</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43404</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43312</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43220</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41759</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41670</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>41578</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>41486</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1863,8 +1947,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1880,8 +1965,9 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1889,28 +1975,28 @@
         <v>0</v>
       </c>
       <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
         <v>100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>300</v>
       </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
       <c r="H41" s="3">
         <v>0</v>
       </c>
       <c r="I41" s="3">
         <v>0</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>4</v>
+      <c r="J41" s="3">
+        <v>0</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L41" s="3">
-        <v>0</v>
+      <c r="L41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M41" s="3">
         <v>0</v>
@@ -1921,8 +2007,11 @@
       <c r="O41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1962,8 +2051,11 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2003,8 +2095,11 @@
       <c r="O43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2044,8 +2139,11 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2053,19 +2151,19 @@
         <v>0</v>
       </c>
       <c r="E45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F45" s="3">
         <v>100</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>4</v>
+      <c r="G45" s="3">
+        <v>100</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I45" s="3">
+        <v>0</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>4</v>
@@ -2073,8 +2171,8 @@
       <c r="K45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L45" s="3">
-        <v>0</v>
+      <c r="L45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M45" s="3">
         <v>0</v>
@@ -2085,8 +2183,11 @@
       <c r="O45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2094,28 +2195,28 @@
         <v>0</v>
       </c>
       <c r="E46" s="3">
+        <v>0</v>
+      </c>
+      <c r="F46" s="3">
         <v>200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>500</v>
       </c>
-      <c r="G46" s="3">
-        <v>0</v>
-      </c>
       <c r="H46" s="3">
         <v>0</v>
       </c>
       <c r="I46" s="3">
         <v>0</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>4</v>
+      <c r="J46" s="3">
+        <v>0</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L46" s="3">
-        <v>0</v>
+      <c r="L46" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M46" s="3">
         <v>0</v>
@@ -2126,19 +2227,22 @@
       <c r="O46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
         <v>200</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0</v>
+      <c r="E47" s="3">
+        <v>200</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G47" s="3">
         <v>0</v>
@@ -2147,11 +2251,11 @@
         <v>0</v>
       </c>
       <c r="I47" s="3">
+        <v>0</v>
+      </c>
+      <c r="J47" s="3">
         <v>2400</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K47" s="3" t="s">
         <v>4</v>
       </c>
@@ -2167,8 +2271,11 @@
       <c r="O47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2188,11 +2295,11 @@
         <v>0</v>
       </c>
       <c r="I48" s="3">
+        <v>0</v>
+      </c>
+      <c r="J48" s="3">
         <v>100</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K48" s="3" t="s">
         <v>4</v>
       </c>
@@ -2208,8 +2315,11 @@
       <c r="O48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2231,14 +2341,14 @@
       <c r="I49" s="3">
         <v>0</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>4</v>
+      <c r="J49" s="3">
+        <v>0</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L49" s="3">
-        <v>200</v>
+      <c r="L49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M49" s="3">
         <v>200</v>
@@ -2249,8 +2359,11 @@
       <c r="O49" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2290,8 +2403,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2331,20 +2447,23 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E52" s="3">
+      <c r="E52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F52" s="3">
         <v>200</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G52" s="3" t="s">
         <v>4</v>
       </c>
@@ -2360,8 +2479,8 @@
       <c r="K52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L52" s="3">
-        <v>0</v>
+      <c r="L52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M52" s="3">
         <v>0</v>
@@ -2372,8 +2491,11 @@
       <c r="O52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2413,8 +2535,11 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2422,28 +2547,28 @@
         <v>200</v>
       </c>
       <c r="E54" s="3">
+        <v>200</v>
+      </c>
+      <c r="F54" s="3">
         <v>400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>500</v>
-      </c>
-      <c r="G54" s="3">
-        <v>100</v>
       </c>
       <c r="H54" s="3">
         <v>100</v>
       </c>
       <c r="I54" s="3">
+        <v>100</v>
+      </c>
+      <c r="J54" s="3">
         <v>2500</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K54" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L54" s="3">
-        <v>200</v>
+      <c r="L54" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M54" s="3">
         <v>200</v>
@@ -2454,8 +2579,11 @@
       <c r="O54" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2471,8 +2599,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2488,8 +2617,9 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2497,10 +2627,10 @@
         <v>500</v>
       </c>
       <c r="E57" s="3">
+        <v>500</v>
+      </c>
+      <c r="F57" s="3">
         <v>400</v>
-      </c>
-      <c r="F57" s="3">
-        <v>200</v>
       </c>
       <c r="G57" s="3">
         <v>200</v>
@@ -2509,11 +2639,11 @@
         <v>200</v>
       </c>
       <c r="I57" s="3">
+        <v>200</v>
+      </c>
+      <c r="J57" s="3">
         <v>100</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K57" s="3" t="s">
         <v>4</v>
       </c>
@@ -2529,8 +2659,11 @@
       <c r="O57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2538,10 +2671,10 @@
         <v>400</v>
       </c>
       <c r="E58" s="3">
+        <v>400</v>
+      </c>
+      <c r="F58" s="3">
         <v>300</v>
-      </c>
-      <c r="F58" s="3">
-        <v>200</v>
       </c>
       <c r="G58" s="3">
         <v>200</v>
@@ -2552,55 +2685,58 @@
       <c r="I58" s="3">
         <v>200</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>4</v>
+      <c r="J58" s="3">
+        <v>200</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L58" s="3">
-        <v>100</v>
+      <c r="L58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M58" s="3">
         <v>100</v>
       </c>
       <c r="N58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E59" s="3">
         <v>900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>400</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L59" s="3">
-        <v>200</v>
+      <c r="L59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M59" s="3">
         <v>200</v>
@@ -2609,51 +2745,57 @@
         <v>200</v>
       </c>
       <c r="O59" s="3">
+        <v>200</v>
+      </c>
+      <c r="P59" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E60" s="3">
         <v>1800</v>
-      </c>
-      <c r="E60" s="3">
-        <v>1300</v>
       </c>
       <c r="F60" s="3">
         <v>1300</v>
       </c>
       <c r="G60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="H60" s="3">
         <v>1000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>700</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K60" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L60" s="3">
-        <v>300</v>
+      <c r="L60" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M60" s="3">
         <v>300</v>
       </c>
       <c r="N60" s="3">
+        <v>300</v>
+      </c>
+      <c r="O60" s="3">
         <v>200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2688,13 +2830,16 @@
         <v>0</v>
       </c>
       <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
         <v>100</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2734,8 +2879,11 @@
       <c r="O62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2775,8 +2923,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2816,8 +2967,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2857,49 +3011,55 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E66" s="3">
         <v>1800</v>
-      </c>
-      <c r="E66" s="3">
-        <v>1300</v>
       </c>
       <c r="F66" s="3">
         <v>1300</v>
       </c>
       <c r="G66" s="3">
+        <v>1300</v>
+      </c>
+      <c r="H66" s="3">
         <v>1000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>700</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K66" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L66" s="3">
-        <v>300</v>
+      <c r="L66" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M66" s="3">
         <v>300</v>
       </c>
       <c r="N66" s="3">
+        <v>300</v>
+      </c>
+      <c r="O66" s="3">
         <v>200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2915,8 +3075,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2956,8 +3117,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2997,8 +3161,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3038,8 +3205,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3079,49 +3249,55 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-35000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-33700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-32800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-32700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-35500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-13400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-9800</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L72" s="3">
+      <c r="L72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M72" s="3">
         <v>-2000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-1900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-1700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3161,8 +3337,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3202,8 +3381,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3243,37 +3425,40 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E76" s="3">
         <v>-1600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-1500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1800</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K76" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L76" s="3">
-        <v>-100</v>
+      <c r="L76" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M76" s="3">
         <v>-100</v>
@@ -3282,10 +3467,13 @@
         <v>-100</v>
       </c>
       <c r="O76" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="P76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3325,95 +3513,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43951</v>
+      </c>
+      <c r="E80" s="2">
         <v>43861</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43769</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43677</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43585</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43496</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43404</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43312</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43220</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41759</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41670</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>41578</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>41486</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>2800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-22100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-3500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-5500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-200</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-100</v>
       </c>
       <c r="M81" s="3">
         <v>-100</v>
       </c>
       <c r="N81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O81" s="3">
         <v>-200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3429,8 +3626,9 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3458,8 +3656,8 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>4</v>
+      <c r="L83" s="3">
+        <v>0</v>
       </c>
       <c r="M83" s="3" t="s">
         <v>4</v>
@@ -3470,8 +3668,11 @@
       <c r="O83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3511,8 +3712,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3552,8 +3756,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3593,8 +3800,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3634,8 +3844,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3675,8 +3888,11 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3687,26 +3903,26 @@
         <v>-100</v>
       </c>
       <c r="F89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G89" s="3">
         <v>-200</v>
       </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
       <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
         <v>-100</v>
       </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
       <c r="J89" s="3">
         <v>0</v>
       </c>
       <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
         <v>-100</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
       <c r="M89" s="3">
         <v>0</v>
       </c>
@@ -3716,8 +3932,11 @@
       <c r="O89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3733,8 +3952,9 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3744,8 +3964,8 @@
       <c r="E91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
+      <c r="F91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
@@ -3762,8 +3982,8 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>4</v>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>4</v>
@@ -3774,8 +3994,11 @@
       <c r="O91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3815,8 +4038,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3856,8 +4082,11 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3865,11 +4094,11 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>-200</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
         <v>0</v>
       </c>
@@ -3897,8 +4126,11 @@
       <c r="O94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3914,8 +4146,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3955,8 +4188,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3996,8 +4232,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4037,8 +4276,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4078,8 +4320,11 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4087,20 +4332,20 @@
         <v>100</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>500</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>100</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
         <v>0</v>
       </c>
@@ -4119,8 +4364,11 @@
       <c r="O100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4160,8 +4408,11 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4169,14 +4420,14 @@
         <v>0</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>-300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>300</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
         <v>0</v>
       </c>
@@ -4199,6 +4450,9 @@
         <v>0</v>
       </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/THCT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/THCT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="92">
   <si>
     <t>THCT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,73 +665,77 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44043</v>
+      </c>
+      <c r="E7" s="2">
         <v>43951</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43861</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43769</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43677</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43585</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43496</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43404</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43312</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43220</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41759</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>41670</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>41578</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>41486</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -774,8 +778,11 @@
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -818,8 +825,11 @@
       <c r="P9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -862,8 +872,11 @@
       <c r="P10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -880,8 +893,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -924,8 +938,11 @@
       <c r="P12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -968,40 +985,43 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>200</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>-7700</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>4900</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K14" s="3">
+      <c r="K14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L14" s="3">
         <v>5200</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>4</v>
@@ -1012,8 +1032,11 @@
       <c r="P14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1044,8 +1067,8 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>4</v>
+      <c r="M15" s="3">
+        <v>0</v>
       </c>
       <c r="N15" s="3" t="s">
         <v>4</v>
@@ -1056,8 +1079,11 @@
       <c r="P15" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1071,52 +1097,56 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>200</v>
+      </c>
+      <c r="E17" s="3">
         <v>700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>-2800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>18700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>200</v>
-      </c>
-      <c r="M17" s="3">
-        <v>100</v>
       </c>
       <c r="N17" s="3">
         <v>100</v>
       </c>
       <c r="O17" s="3">
+        <v>100</v>
+      </c>
+      <c r="P17" s="3">
         <v>200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1124,43 +1154,46 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F18" s="3">
         <v>-400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>2800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-18700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-2700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-5500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-200</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-100</v>
       </c>
       <c r="N18" s="3">
         <v>-100</v>
       </c>
       <c r="O18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P18" s="3">
         <v>-200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1177,8 +1210,9 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1186,23 +1220,23 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F20" s="3">
         <v>-400</v>
-      </c>
-      <c r="F20" s="3">
-        <v>100</v>
       </c>
       <c r="G20" s="3">
         <v>100</v>
       </c>
       <c r="H20" s="3">
+        <v>100</v>
+      </c>
+      <c r="I20" s="3">
         <v>-3200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-800</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
@@ -1219,10 +1253,13 @@
         <v>0</v>
       </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1230,32 +1267,32 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F21" s="3">
         <v>-700</v>
       </c>
-      <c r="F21" s="3">
-        <v>0</v>
-      </c>
       <c r="G21" s="3">
+        <v>0</v>
+      </c>
+      <c r="H21" s="3">
         <v>2900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-21900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-3500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-5500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-200</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1265,8 +1302,11 @@
       <c r="P21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1283,11 +1323,11 @@
         <v>100</v>
       </c>
       <c r="H22" s="3">
+        <v>100</v>
+      </c>
+      <c r="I22" s="3">
         <v>200</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
       <c r="J22" s="3">
         <v>0</v>
       </c>
@@ -1309,52 +1349,58 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-22100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-3500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-5500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-200</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-100</v>
       </c>
       <c r="N23" s="3">
         <v>-100</v>
       </c>
       <c r="O23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P23" s="3">
         <v>-200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1397,8 +1443,11 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1441,96 +1490,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>2800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-22100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-3500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-5500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-200</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-100</v>
       </c>
       <c r="N26" s="3">
         <v>-100</v>
       </c>
       <c r="O26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P26" s="3">
         <v>-200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>2800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-22100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-3500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-5500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-200</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-100</v>
       </c>
       <c r="N27" s="3">
         <v>-100</v>
       </c>
       <c r="O27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P27" s="3">
         <v>-200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1573,8 +1631,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1617,8 +1678,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1661,8 +1725,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1705,8 +1772,11 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1714,23 +1784,23 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>500</v>
+      </c>
+      <c r="F32" s="3">
         <v>400</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-100</v>
       </c>
       <c r="G32" s="3">
         <v>-100</v>
       </c>
       <c r="H32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I32" s="3">
         <v>3200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>800</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
@@ -1747,54 +1817,60 @@
         <v>0</v>
       </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>2800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-22100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-3500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-5500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-200</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-100</v>
       </c>
       <c r="N33" s="3">
         <v>-100</v>
       </c>
       <c r="O33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P33" s="3">
         <v>-200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1837,101 +1913,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>2800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-22100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-3500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-5500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-200</v>
-      </c>
-      <c r="M35" s="3">
-        <v>-100</v>
       </c>
       <c r="N35" s="3">
         <v>-100</v>
       </c>
       <c r="O35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P35" s="3">
         <v>-200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44043</v>
+      </c>
+      <c r="E38" s="2">
         <v>43951</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43861</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43769</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43677</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43585</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43496</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43404</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43312</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43220</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41759</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>41670</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>41578</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>41486</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1948,8 +2033,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1966,8 +2052,9 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1978,28 +2065,28 @@
         <v>0</v>
       </c>
       <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
         <v>100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>300</v>
       </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
       <c r="I41" s="3">
         <v>0</v>
       </c>
       <c r="J41" s="3">
         <v>0</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>4</v>
+      <c r="K41" s="3">
+        <v>0</v>
       </c>
       <c r="L41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M41" s="3">
-        <v>0</v>
+      <c r="M41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N41" s="3">
         <v>0</v>
@@ -2010,8 +2097,11 @@
       <c r="P41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2054,8 +2144,11 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2098,8 +2191,11 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2142,8 +2238,11 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2154,19 +2253,19 @@
         <v>0</v>
       </c>
       <c r="F45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G45" s="3">
         <v>100</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>4</v>
+      <c r="H45" s="3">
+        <v>100</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J45" s="3">
+        <v>0</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>4</v>
@@ -2174,8 +2273,8 @@
       <c r="L45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M45" s="3">
-        <v>0</v>
+      <c r="M45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N45" s="3">
         <v>0</v>
@@ -2186,8 +2285,11 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2198,28 +2300,28 @@
         <v>0</v>
       </c>
       <c r="F46" s="3">
+        <v>0</v>
+      </c>
+      <c r="G46" s="3">
         <v>200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>500</v>
       </c>
-      <c r="H46" s="3">
-        <v>0</v>
-      </c>
       <c r="I46" s="3">
         <v>0</v>
       </c>
       <c r="J46" s="3">
         <v>0</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>4</v>
+      <c r="K46" s="3">
+        <v>0</v>
       </c>
       <c r="L46" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M46" s="3">
-        <v>0</v>
+      <c r="M46" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N46" s="3">
         <v>0</v>
@@ -2230,22 +2332,25 @@
       <c r="P46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
-        <v>200</v>
+      <c r="D47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E47" s="3">
         <v>200</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
+      <c r="F47" s="3">
+        <v>200</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H47" s="3">
         <v>0</v>
@@ -2254,11 +2359,11 @@
         <v>0</v>
       </c>
       <c r="J47" s="3">
+        <v>0</v>
+      </c>
+      <c r="K47" s="3">
         <v>2400</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L47" s="3" t="s">
         <v>4</v>
       </c>
@@ -2274,8 +2379,11 @@
       <c r="P47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2298,11 +2406,11 @@
         <v>0</v>
       </c>
       <c r="J48" s="3">
+        <v>0</v>
+      </c>
+      <c r="K48" s="3">
         <v>100</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>4</v>
       </c>
@@ -2318,8 +2426,11 @@
       <c r="P48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2344,14 +2455,14 @@
       <c r="J49" s="3">
         <v>0</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>4</v>
+      <c r="K49" s="3">
+        <v>0</v>
       </c>
       <c r="L49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M49" s="3">
-        <v>200</v>
+      <c r="M49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N49" s="3">
         <v>200</v>
@@ -2362,8 +2473,11 @@
       <c r="P49" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2406,8 +2520,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2450,8 +2567,11 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2461,12 +2581,12 @@
       <c r="E52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F52" s="3">
+      <c r="F52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G52" s="3">
         <v>200</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H52" s="3" t="s">
         <v>4</v>
       </c>
@@ -2482,8 +2602,8 @@
       <c r="L52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M52" s="3">
-        <v>0</v>
+      <c r="M52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N52" s="3">
         <v>0</v>
@@ -2494,8 +2614,11 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2538,40 +2661,43 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E54" s="3">
         <v>200</v>
       </c>
       <c r="F54" s="3">
+        <v>200</v>
+      </c>
+      <c r="G54" s="3">
         <v>400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>500</v>
-      </c>
-      <c r="H54" s="3">
-        <v>100</v>
       </c>
       <c r="I54" s="3">
         <v>100</v>
       </c>
       <c r="J54" s="3">
+        <v>100</v>
+      </c>
+      <c r="K54" s="3">
         <v>2500</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M54" s="3">
-        <v>200</v>
+      <c r="M54" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N54" s="3">
         <v>200</v>
@@ -2582,8 +2708,11 @@
       <c r="P54" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2600,8 +2729,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2618,8 +2748,9 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2630,10 +2761,10 @@
         <v>500</v>
       </c>
       <c r="F57" s="3">
+        <v>500</v>
+      </c>
+      <c r="G57" s="3">
         <v>400</v>
-      </c>
-      <c r="G57" s="3">
-        <v>200</v>
       </c>
       <c r="H57" s="3">
         <v>200</v>
@@ -2642,11 +2773,11 @@
         <v>200</v>
       </c>
       <c r="J57" s="3">
+        <v>200</v>
+      </c>
+      <c r="K57" s="3">
         <v>100</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>4</v>
       </c>
@@ -2662,8 +2793,11 @@
       <c r="P57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2674,10 +2808,10 @@
         <v>400</v>
       </c>
       <c r="F58" s="3">
+        <v>400</v>
+      </c>
+      <c r="G58" s="3">
         <v>300</v>
-      </c>
-      <c r="G58" s="3">
-        <v>200</v>
       </c>
       <c r="H58" s="3">
         <v>200</v>
@@ -2688,58 +2822,61 @@
       <c r="J58" s="3">
         <v>200</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>4</v>
+      <c r="K58" s="3">
+        <v>200</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M58" s="3">
-        <v>100</v>
+      <c r="M58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N58" s="3">
         <v>100</v>
       </c>
       <c r="O58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>900</v>
+      </c>
+      <c r="E59" s="3">
         <v>1500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>400</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M59" s="3">
-        <v>200</v>
+      <c r="M59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N59" s="3">
         <v>200</v>
@@ -2748,54 +2885,60 @@
         <v>200</v>
       </c>
       <c r="P59" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q59" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E60" s="3">
         <v>2400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1800</v>
-      </c>
-      <c r="F60" s="3">
-        <v>1300</v>
       </c>
       <c r="G60" s="3">
         <v>1300</v>
       </c>
       <c r="H60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="I60" s="3">
         <v>1000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>700</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M60" s="3">
-        <v>300</v>
+      <c r="M60" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N60" s="3">
         <v>300</v>
       </c>
       <c r="O60" s="3">
+        <v>300</v>
+      </c>
+      <c r="P60" s="3">
         <v>200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2833,13 +2976,16 @@
         <v>0</v>
       </c>
       <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
         <v>100</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2882,8 +3028,11 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2926,8 +3075,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2970,8 +3122,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3014,52 +3169,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E66" s="3">
         <v>2400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1800</v>
-      </c>
-      <c r="F66" s="3">
-        <v>1300</v>
       </c>
       <c r="G66" s="3">
         <v>1300</v>
       </c>
       <c r="H66" s="3">
+        <v>1300</v>
+      </c>
+      <c r="I66" s="3">
         <v>1000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>700</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M66" s="3">
-        <v>300</v>
+      <c r="M66" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N66" s="3">
         <v>300</v>
       </c>
       <c r="O66" s="3">
+        <v>300</v>
+      </c>
+      <c r="P66" s="3">
         <v>200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3076,8 +3237,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3120,8 +3282,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3164,8 +3329,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3208,8 +3376,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3252,52 +3423,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-34600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-35000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-33700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-32800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-32700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-35500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-13400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-9800</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M72" s="3">
+      <c r="M72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N72" s="3">
         <v>-2000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-1900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-1700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3340,8 +3517,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3384,8 +3564,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3428,40 +3611,43 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E76" s="3">
         <v>-2200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-1600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-1500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1800</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M76" s="3">
-        <v>-100</v>
+      <c r="M76" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N76" s="3">
         <v>-100</v>
@@ -3470,10 +3656,13 @@
         <v>-100</v>
       </c>
       <c r="P76" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="Q76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3516,101 +3705,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44043</v>
+      </c>
+      <c r="E80" s="2">
         <v>43951</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43861</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43769</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43677</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43585</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43496</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43404</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43312</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43220</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41759</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>41670</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>41578</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>41486</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>2800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-22100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-3500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-5500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-200</v>
-      </c>
-      <c r="M81" s="3">
-        <v>-100</v>
       </c>
       <c r="N81" s="3">
         <v>-100</v>
       </c>
       <c r="O81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P81" s="3">
         <v>-200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3627,8 +3825,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3659,8 +3858,8 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>4</v>
+      <c r="M83" s="3">
+        <v>0</v>
       </c>
       <c r="N83" s="3" t="s">
         <v>4</v>
@@ -3671,8 +3870,11 @@
       <c r="P83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3715,8 +3917,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3759,8 +3964,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3803,8 +4011,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3847,8 +4058,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3891,13 +4105,16 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E89" s="3">
         <v>-100</v>
@@ -3906,26 +4123,26 @@
         <v>-100</v>
       </c>
       <c r="G89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H89" s="3">
         <v>-200</v>
       </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
       <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
         <v>-100</v>
       </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
       <c r="K89" s="3">
         <v>0</v>
       </c>
       <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
       <c r="N89" s="3">
         <v>0</v>
       </c>
@@ -3935,8 +4152,11 @@
       <c r="P89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3953,8 +4173,9 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3967,8 +4188,8 @@
       <c r="F91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
+      <c r="G91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H91" s="3">
         <v>0</v>
@@ -3985,8 +4206,8 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>4</v>
+      <c r="M91" s="3">
+        <v>0</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>4</v>
@@ -3997,8 +4218,11 @@
       <c r="P91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4041,8 +4265,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4085,23 +4312,26 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
       </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>-200</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
         <v>0</v>
       </c>
@@ -4129,8 +4359,11 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4147,8 +4380,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4191,8 +4425,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4235,8 +4472,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4279,8 +4519,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4323,8 +4566,11 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4335,20 +4581,20 @@
         <v>100</v>
       </c>
       <c r="F100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>500</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>100</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
@@ -4367,8 +4613,11 @@
       <c r="P100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4411,8 +4660,11 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4423,14 +4675,14 @@
         <v>0</v>
       </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>-300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>300</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
         <v>0</v>
       </c>
@@ -4453,6 +4705,9 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/THCT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/THCT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="92">
   <si>
     <t>THCT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,77 +665,81 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44135</v>
+      </c>
+      <c r="E7" s="2">
         <v>44043</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43951</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43861</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43769</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43677</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43585</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43496</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43404</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43312</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43220</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>41759</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>41670</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>41578</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>41486</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -781,8 +785,11 @@
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -828,8 +835,11 @@
       <c r="Q9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -875,8 +885,11 @@
       <c r="Q10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -894,8 +907,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -941,8 +955,11 @@
       <c r="Q12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -988,43 +1005,46 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>200</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>-7700</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>4900</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L14" s="3">
+      <c r="L14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M14" s="3">
         <v>5200</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>4</v>
@@ -1035,8 +1055,11 @@
       <c r="Q14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1070,8 +1093,8 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>4</v>
+      <c r="N15" s="3">
+        <v>0</v>
       </c>
       <c r="O15" s="3" t="s">
         <v>4</v>
@@ -1082,8 +1105,11 @@
       <c r="Q15" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,55 +1124,59 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>100</v>
+      </c>
+      <c r="E17" s="3">
         <v>200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>-2800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>18700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>200</v>
-      </c>
-      <c r="N17" s="3">
-        <v>100</v>
       </c>
       <c r="O17" s="3">
         <v>100</v>
       </c>
       <c r="P17" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q17" s="3">
         <v>200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1154,46 +1184,49 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F18" s="3">
         <v>-700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>2800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-18700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-2700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-5500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-200</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-100</v>
       </c>
       <c r="O18" s="3">
         <v>-100</v>
       </c>
       <c r="P18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,8 +1244,9 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1220,26 +1254,26 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>700</v>
+      </c>
+      <c r="F20" s="3">
         <v>-500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-400</v>
-      </c>
-      <c r="G20" s="3">
-        <v>100</v>
       </c>
       <c r="H20" s="3">
         <v>100</v>
       </c>
       <c r="I20" s="3">
+        <v>100</v>
+      </c>
+      <c r="J20" s="3">
         <v>-3200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-800</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
@@ -1256,10 +1290,13 @@
         <v>0</v>
       </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1267,35 +1304,35 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>500</v>
+      </c>
+      <c r="F21" s="3">
         <v>-1100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-700</v>
       </c>
-      <c r="G21" s="3">
-        <v>0</v>
-      </c>
       <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="3">
         <v>2900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-21900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-3500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-5500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-200</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1305,8 +1342,11 @@
       <c r="Q21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1326,11 +1366,11 @@
         <v>100</v>
       </c>
       <c r="I22" s="3">
+        <v>100</v>
+      </c>
+      <c r="J22" s="3">
         <v>200</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
       <c r="K22" s="3">
         <v>0</v>
       </c>
@@ -1352,55 +1392,61 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E23" s="3">
         <v>300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>2800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-22100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-3500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-5500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-200</v>
-      </c>
-      <c r="N23" s="3">
-        <v>-100</v>
       </c>
       <c r="O23" s="3">
         <v>-100</v>
       </c>
       <c r="P23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1446,8 +1492,11 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,102 +1542,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E26" s="3">
         <v>300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>2800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-22100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-3500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-5500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-200</v>
-      </c>
-      <c r="N26" s="3">
-        <v>-100</v>
       </c>
       <c r="O26" s="3">
         <v>-100</v>
       </c>
       <c r="P26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E27" s="3">
         <v>300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>2800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-22100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-3500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-5500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-200</v>
-      </c>
-      <c r="N27" s="3">
-        <v>-100</v>
       </c>
       <c r="O27" s="3">
         <v>-100</v>
       </c>
       <c r="P27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,8 +1692,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1681,8 +1742,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1792,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,8 +1842,11 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1784,26 +1854,26 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F32" s="3">
         <v>500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>400</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-100</v>
       </c>
       <c r="H32" s="3">
         <v>-100</v>
       </c>
       <c r="I32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J32" s="3">
         <v>3200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>800</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
@@ -1820,57 +1890,63 @@
         <v>0</v>
       </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E33" s="3">
         <v>300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>2800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-22100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-3500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-5500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-200</v>
-      </c>
-      <c r="N33" s="3">
-        <v>-100</v>
       </c>
       <c r="O33" s="3">
         <v>-100</v>
       </c>
       <c r="P33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,107 +1992,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E35" s="3">
         <v>300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>2800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-22100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-3500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-5500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-200</v>
-      </c>
-      <c r="N35" s="3">
-        <v>-100</v>
       </c>
       <c r="O35" s="3">
         <v>-100</v>
       </c>
       <c r="P35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44135</v>
+      </c>
+      <c r="E38" s="2">
         <v>44043</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43951</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43861</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43769</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43677</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43585</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43496</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43404</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43312</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43220</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>41759</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>41670</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>41578</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>41486</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2119,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,8 +2139,9 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2068,28 +2155,28 @@
         <v>0</v>
       </c>
       <c r="G41" s="3">
+        <v>0</v>
+      </c>
+      <c r="H41" s="3">
         <v>100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>300</v>
       </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
       <c r="J41" s="3">
         <v>0</v>
       </c>
       <c r="K41" s="3">
         <v>0</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>4</v>
+      <c r="L41" s="3">
+        <v>0</v>
       </c>
       <c r="M41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N41" s="3">
-        <v>0</v>
+      <c r="N41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O41" s="3">
         <v>0</v>
@@ -2100,8 +2187,11 @@
       <c r="Q41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2147,8 +2237,11 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2194,8 +2287,11 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2241,13 +2337,16 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3">
-        <v>0</v>
+      <c r="D45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E45" s="3">
         <v>0</v>
@@ -2256,19 +2355,19 @@
         <v>0</v>
       </c>
       <c r="G45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H45" s="3">
         <v>100</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J45" s="3">
-        <v>0</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>4</v>
+      <c r="I45" s="3">
+        <v>100</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K45" s="3">
+        <v>0</v>
       </c>
       <c r="L45" s="3" t="s">
         <v>4</v>
@@ -2276,8 +2375,8 @@
       <c r="M45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N45" s="3">
-        <v>0</v>
+      <c r="N45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O45" s="3">
         <v>0</v>
@@ -2288,8 +2387,11 @@
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2303,28 +2405,28 @@
         <v>0</v>
       </c>
       <c r="G46" s="3">
+        <v>0</v>
+      </c>
+      <c r="H46" s="3">
         <v>200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>500</v>
       </c>
-      <c r="I46" s="3">
-        <v>0</v>
-      </c>
       <c r="J46" s="3">
         <v>0</v>
       </c>
       <c r="K46" s="3">
         <v>0</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>4</v>
+      <c r="L46" s="3">
+        <v>0</v>
       </c>
       <c r="M46" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N46" s="3">
-        <v>0</v>
+      <c r="N46" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O46" s="3">
         <v>0</v>
@@ -2335,25 +2437,28 @@
       <c r="Q46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E47" s="3">
-        <v>200</v>
+      <c r="E47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F47" s="3">
         <v>200</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
+      <c r="G47" s="3">
+        <v>200</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I47" s="3">
         <v>0</v>
@@ -2362,11 +2467,11 @@
         <v>0</v>
       </c>
       <c r="K47" s="3">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3">
         <v>2400</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M47" s="3" t="s">
         <v>4</v>
       </c>
@@ -2382,8 +2487,11 @@
       <c r="Q47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2409,11 +2517,11 @@
         <v>0</v>
       </c>
       <c r="K48" s="3">
+        <v>0</v>
+      </c>
+      <c r="L48" s="3">
         <v>100</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>4</v>
       </c>
@@ -2429,8 +2537,11 @@
       <c r="Q48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2458,14 +2569,14 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>4</v>
+      <c r="L49" s="3">
+        <v>0</v>
       </c>
       <c r="M49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N49" s="3">
-        <v>200</v>
+      <c r="N49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O49" s="3">
         <v>200</v>
@@ -2476,8 +2587,11 @@
       <c r="Q49" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2637,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,8 +2687,11 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2584,12 +2704,12 @@
       <c r="F52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G52" s="3">
+      <c r="G52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H52" s="3">
         <v>200</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>4</v>
       </c>
@@ -2605,8 +2725,8 @@
       <c r="M52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N52" s="3">
-        <v>0</v>
+      <c r="N52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O52" s="3">
         <v>0</v>
@@ -2617,8 +2737,11 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,43 +2787,46 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>0</v>
+      </c>
+      <c r="E54" s="3">
         <v>100</v>
-      </c>
-      <c r="E54" s="3">
-        <v>200</v>
       </c>
       <c r="F54" s="3">
         <v>200</v>
       </c>
       <c r="G54" s="3">
+        <v>200</v>
+      </c>
+      <c r="H54" s="3">
         <v>400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>500</v>
-      </c>
-      <c r="I54" s="3">
-        <v>100</v>
       </c>
       <c r="J54" s="3">
         <v>100</v>
       </c>
       <c r="K54" s="3">
+        <v>100</v>
+      </c>
+      <c r="L54" s="3">
         <v>2500</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N54" s="3">
-        <v>200</v>
+      <c r="N54" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O54" s="3">
         <v>200</v>
@@ -2711,8 +2837,11 @@
       <c r="Q54" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2859,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,13 +2879,14 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E57" s="3">
         <v>500</v>
@@ -2764,10 +2895,10 @@
         <v>500</v>
       </c>
       <c r="G57" s="3">
+        <v>500</v>
+      </c>
+      <c r="H57" s="3">
         <v>400</v>
-      </c>
-      <c r="H57" s="3">
-        <v>200</v>
       </c>
       <c r="I57" s="3">
         <v>200</v>
@@ -2776,11 +2907,11 @@
         <v>200</v>
       </c>
       <c r="K57" s="3">
+        <v>200</v>
+      </c>
+      <c r="L57" s="3">
         <v>100</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>4</v>
       </c>
@@ -2796,13 +2927,16 @@
       <c r="Q57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E58" s="3">
         <v>400</v>
@@ -2811,10 +2945,10 @@
         <v>400</v>
       </c>
       <c r="G58" s="3">
+        <v>400</v>
+      </c>
+      <c r="H58" s="3">
         <v>300</v>
-      </c>
-      <c r="H58" s="3">
-        <v>200</v>
       </c>
       <c r="I58" s="3">
         <v>200</v>
@@ -2825,61 +2959,64 @@
       <c r="K58" s="3">
         <v>200</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>4</v>
+      <c r="L58" s="3">
+        <v>200</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N58" s="3">
-        <v>100</v>
+      <c r="N58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O58" s="3">
         <v>100</v>
       </c>
       <c r="P58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>800</v>
+      </c>
+      <c r="E59" s="3">
         <v>900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>400</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N59" s="3">
-        <v>200</v>
+      <c r="N59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O59" s="3">
         <v>200</v>
@@ -2888,10 +3025,13 @@
         <v>200</v>
       </c>
       <c r="Q59" s="3">
+        <v>200</v>
+      </c>
+      <c r="R59" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2899,46 +3039,49 @@
         <v>1900</v>
       </c>
       <c r="E60" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F60" s="3">
         <v>2400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1800</v>
-      </c>
-      <c r="G60" s="3">
-        <v>1300</v>
       </c>
       <c r="H60" s="3">
         <v>1300</v>
       </c>
       <c r="I60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="J60" s="3">
         <v>1000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>700</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N60" s="3">
-        <v>300</v>
+      <c r="N60" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O60" s="3">
         <v>300</v>
       </c>
       <c r="P60" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q60" s="3">
         <v>200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2979,13 +3122,16 @@
         <v>0</v>
       </c>
       <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
         <v>100</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3031,8 +3177,11 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3227,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3277,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,8 +3327,11 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3181,46 +3339,49 @@
         <v>1900</v>
       </c>
       <c r="E66" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F66" s="3">
         <v>2400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1800</v>
-      </c>
-      <c r="G66" s="3">
-        <v>1300</v>
       </c>
       <c r="H66" s="3">
         <v>1300</v>
       </c>
       <c r="I66" s="3">
+        <v>1300</v>
+      </c>
+      <c r="J66" s="3">
         <v>1000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>700</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N66" s="3">
-        <v>300</v>
+      <c r="N66" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O66" s="3">
         <v>300</v>
       </c>
       <c r="P66" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q66" s="3">
         <v>200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3399,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3447,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3497,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3379,8 +3547,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,55 +3597,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-34700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-34600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-35000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-33700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-32800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-32700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-35500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-13400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-9800</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N72" s="3">
+      <c r="N72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O72" s="3">
         <v>-2000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-1900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3697,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3747,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,8 +3797,11 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -3623,34 +3809,34 @@
         <v>-1800</v>
       </c>
       <c r="E76" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F76" s="3">
         <v>-2200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-1600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-1500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1800</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N76" s="3">
-        <v>-100</v>
+      <c r="N76" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O76" s="3">
         <v>-100</v>
@@ -3659,10 +3845,13 @@
         <v>-100</v>
       </c>
       <c r="Q76" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="R76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,107 +3897,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44135</v>
+      </c>
+      <c r="E80" s="2">
         <v>44043</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43951</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43861</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43769</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43677</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43585</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43496</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43404</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43312</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43220</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>41759</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>41670</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>41578</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>41486</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E81" s="3">
         <v>300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>2800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-22100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-3500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-5500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-200</v>
-      </c>
-      <c r="N81" s="3">
-        <v>-100</v>
       </c>
       <c r="O81" s="3">
         <v>-100</v>
       </c>
       <c r="P81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,8 +4024,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3861,8 +4060,8 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>4</v>
+      <c r="N83" s="3">
+        <v>0</v>
       </c>
       <c r="O83" s="3" t="s">
         <v>4</v>
@@ -3873,8 +4072,11 @@
       <c r="Q83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4122,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4172,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4222,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4272,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,16 +4322,19 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-200</v>
-      </c>
-      <c r="E89" s="3">
-        <v>-100</v>
       </c>
       <c r="F89" s="3">
         <v>-100</v>
@@ -4126,26 +4343,26 @@
         <v>-100</v>
       </c>
       <c r="H89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I89" s="3">
         <v>-200</v>
       </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
       <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
         <v>-100</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
       <c r="L89" s="3">
         <v>0</v>
       </c>
       <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
         <v>-100</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
       <c r="O89" s="3">
         <v>0</v>
       </c>
@@ -4155,8 +4372,11 @@
       <c r="Q89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,22 +4394,23 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>4</v>
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
       </c>
       <c r="H91" s="3">
         <v>0</v>
@@ -4209,8 +4430,8 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>4</v>
+      <c r="N91" s="3">
+        <v>0</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>4</v>
@@ -4221,8 +4442,11 @@
       <c r="Q91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4492,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,26 +4542,29 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
         <v>200</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
         <v>0</v>
       </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>-200</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
         <v>0</v>
       </c>
@@ -4362,8 +4592,11 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,8 +4614,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4428,8 +4662,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4712,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +4762,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,13 +4812,16 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E100" s="3">
         <v>100</v>
@@ -4584,20 +4830,20 @@
         <v>100</v>
       </c>
       <c r="G100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>500</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>100</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
         <v>0</v>
       </c>
@@ -4616,8 +4862,11 @@
       <c r="Q100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4663,8 +4912,11 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4678,14 +4930,14 @@
         <v>0</v>
       </c>
       <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>-300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>300</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
         <v>0</v>
       </c>
@@ -4708,6 +4960,9 @@
         <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/THCT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/THCT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="92">
   <si>
     <t>THCT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,81 +665,85 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44227</v>
+      </c>
+      <c r="E7" s="2">
         <v>44135</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44043</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43951</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43861</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43769</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43677</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43585</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43496</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43404</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43312</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43220</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>41759</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>41670</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>41578</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>41486</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -788,8 +792,11 @@
       <c r="R8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -838,8 +845,11 @@
       <c r="R9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -888,8 +898,11 @@
       <c r="R10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -908,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -958,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,46 +1025,49 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>200</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>-7700</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>4900</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N14" s="3">
         <v>5200</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>4</v>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>4</v>
@@ -1058,8 +1078,11 @@
       <c r="R14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1096,8 +1119,8 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>4</v>
+      <c r="O15" s="3">
+        <v>0</v>
       </c>
       <c r="P15" s="3" t="s">
         <v>4</v>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,58 +1151,62 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>300</v>
+      </c>
+      <c r="E17" s="3">
         <v>100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>-2800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>18700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>200</v>
-      </c>
-      <c r="O17" s="3">
-        <v>100</v>
       </c>
       <c r="P17" s="3">
         <v>100</v>
       </c>
       <c r="Q17" s="3">
+        <v>100</v>
+      </c>
+      <c r="R17" s="3">
         <v>200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1184,49 +1214,52 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F18" s="3">
         <v>-200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>2800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-18700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-2700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-5500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-200</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-100</v>
       </c>
       <c r="P18" s="3">
         <v>-100</v>
       </c>
       <c r="Q18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R18" s="3">
         <v>-200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,8 +1278,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1254,29 +1288,29 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>100</v>
+      </c>
+      <c r="F20" s="3">
         <v>700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-400</v>
-      </c>
-      <c r="H20" s="3">
-        <v>100</v>
       </c>
       <c r="I20" s="3">
         <v>100</v>
       </c>
       <c r="J20" s="3">
+        <v>100</v>
+      </c>
+      <c r="K20" s="3">
         <v>-3200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-800</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
@@ -1293,10 +1327,13 @@
         <v>0</v>
       </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1304,38 +1341,38 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3">
         <v>500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-700</v>
       </c>
-      <c r="H21" s="3">
-        <v>0</v>
-      </c>
       <c r="I21" s="3">
+        <v>0</v>
+      </c>
+      <c r="J21" s="3">
         <v>2900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-21900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-3500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-5500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-200</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1345,8 +1382,11 @@
       <c r="R21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1369,11 +1409,11 @@
         <v>100</v>
       </c>
       <c r="J22" s="3">
+        <v>100</v>
+      </c>
+      <c r="K22" s="3">
         <v>200</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
       <c r="L22" s="3">
         <v>0</v>
       </c>
@@ -1395,58 +1435,64 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-22100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-3500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-5500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-200</v>
-      </c>
-      <c r="O23" s="3">
-        <v>-100</v>
       </c>
       <c r="P23" s="3">
         <v>-100</v>
       </c>
       <c r="Q23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R23" s="3">
         <v>-200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1495,8 +1541,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>2800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-22100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-3500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-5500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-200</v>
-      </c>
-      <c r="O26" s="3">
-        <v>-100</v>
       </c>
       <c r="P26" s="3">
         <v>-100</v>
       </c>
       <c r="Q26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R26" s="3">
         <v>-200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>2800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-22100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-3500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-5500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-200</v>
-      </c>
-      <c r="O27" s="3">
-        <v>-100</v>
       </c>
       <c r="P27" s="3">
         <v>-100</v>
       </c>
       <c r="Q27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R27" s="3">
         <v>-200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,8 +1912,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1854,29 +1924,29 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F32" s="3">
         <v>-700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>400</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-100</v>
       </c>
       <c r="I32" s="3">
         <v>-100</v>
       </c>
       <c r="J32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K32" s="3">
         <v>3200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>800</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
@@ -1893,60 +1963,66 @@
         <v>0</v>
       </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>2800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-22100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-3500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-5500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-200</v>
-      </c>
-      <c r="O33" s="3">
-        <v>-100</v>
       </c>
       <c r="P33" s="3">
         <v>-100</v>
       </c>
       <c r="Q33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R33" s="3">
         <v>-200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>2800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-22100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-3500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-5500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-200</v>
-      </c>
-      <c r="O35" s="3">
-        <v>-100</v>
       </c>
       <c r="P35" s="3">
         <v>-100</v>
       </c>
       <c r="Q35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R35" s="3">
         <v>-200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44227</v>
+      </c>
+      <c r="E38" s="2">
         <v>44135</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44043</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43951</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43861</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43769</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43677</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43585</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43496</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43404</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43312</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43220</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>41759</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>41670</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>41578</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>41486</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,13 +2226,14 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E41" s="3">
         <v>0</v>
@@ -2158,28 +2245,28 @@
         <v>0</v>
       </c>
       <c r="H41" s="3">
+        <v>0</v>
+      </c>
+      <c r="I41" s="3">
         <v>100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>300</v>
       </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
       <c r="K41" s="3">
         <v>0</v>
       </c>
       <c r="L41" s="3">
         <v>0</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>4</v>
+      <c r="M41" s="3">
+        <v>0</v>
       </c>
       <c r="N41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O41" s="3">
-        <v>0</v>
+      <c r="O41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P41" s="3">
         <v>0</v>
@@ -2190,8 +2277,11 @@
       <c r="R41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2240,8 +2330,11 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2290,8 +2383,11 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2340,16 +2436,19 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E45" s="3">
-        <v>0</v>
+      <c r="D45" s="3">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F45" s="3">
         <v>0</v>
@@ -2358,19 +2457,19 @@
         <v>0</v>
       </c>
       <c r="H45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I45" s="3">
         <v>100</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K45" s="3">
-        <v>0</v>
-      </c>
-      <c r="L45" s="3" t="s">
-        <v>4</v>
+      <c r="J45" s="3">
+        <v>100</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L45" s="3">
+        <v>0</v>
       </c>
       <c r="M45" s="3" t="s">
         <v>4</v>
@@ -2378,8 +2477,8 @@
       <c r="N45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O45" s="3">
-        <v>0</v>
+      <c r="O45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P45" s="3">
         <v>0</v>
@@ -2390,13 +2489,16 @@
       <c r="R45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E46" s="3">
         <v>0</v>
@@ -2408,28 +2510,28 @@
         <v>0</v>
       </c>
       <c r="H46" s="3">
+        <v>0</v>
+      </c>
+      <c r="I46" s="3">
         <v>200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>500</v>
       </c>
-      <c r="J46" s="3">
-        <v>0</v>
-      </c>
       <c r="K46" s="3">
         <v>0</v>
       </c>
       <c r="L46" s="3">
         <v>0</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>4</v>
+      <c r="M46" s="3">
+        <v>0</v>
       </c>
       <c r="N46" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O46" s="3">
-        <v>0</v>
+      <c r="O46" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P46" s="3">
         <v>0</v>
@@ -2440,8 +2542,11 @@
       <c r="R46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2451,17 +2556,17 @@
       <c r="E47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F47" s="3">
-        <v>200</v>
+      <c r="F47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G47" s="3">
         <v>200</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
+      <c r="H47" s="3">
+        <v>200</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J47" s="3">
         <v>0</v>
@@ -2470,11 +2575,11 @@
         <v>0</v>
       </c>
       <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
         <v>2400</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N47" s="3" t="s">
         <v>4</v>
       </c>
@@ -2490,8 +2595,11 @@
       <c r="R47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2520,11 +2628,11 @@
         <v>0</v>
       </c>
       <c r="L48" s="3">
+        <v>0</v>
+      </c>
+      <c r="M48" s="3">
         <v>100</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>4</v>
       </c>
@@ -2540,8 +2648,11 @@
       <c r="R48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2572,14 +2683,14 @@
       <c r="L49" s="3">
         <v>0</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>4</v>
+      <c r="M49" s="3">
+        <v>0</v>
       </c>
       <c r="N49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O49" s="3">
-        <v>200</v>
+      <c r="O49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P49" s="3">
         <v>200</v>
@@ -2590,8 +2701,11 @@
       <c r="R49" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,8 +2807,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2707,12 +2827,12 @@
       <c r="G52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H52" s="3">
+      <c r="H52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I52" s="3">
         <v>200</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>4</v>
       </c>
@@ -2728,8 +2848,8 @@
       <c r="N52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O52" s="3">
-        <v>0</v>
+      <c r="O52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P52" s="3">
         <v>0</v>
@@ -2740,8 +2860,11 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,46 +2913,49 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E54" s="3">
+        <v>0</v>
+      </c>
+      <c r="F54" s="3">
         <v>100</v>
-      </c>
-      <c r="F54" s="3">
-        <v>200</v>
       </c>
       <c r="G54" s="3">
         <v>200</v>
       </c>
       <c r="H54" s="3">
+        <v>200</v>
+      </c>
+      <c r="I54" s="3">
         <v>400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>500</v>
-      </c>
-      <c r="J54" s="3">
-        <v>100</v>
       </c>
       <c r="K54" s="3">
         <v>100</v>
       </c>
       <c r="L54" s="3">
+        <v>100</v>
+      </c>
+      <c r="M54" s="3">
         <v>2500</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O54" s="3">
-        <v>200</v>
+      <c r="O54" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P54" s="3">
         <v>200</v>
@@ -2840,8 +2966,11 @@
       <c r="R54" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,8 +3010,9 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2889,7 +3020,7 @@
         <v>600</v>
       </c>
       <c r="E57" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="F57" s="3">
         <v>500</v>
@@ -2898,10 +3029,10 @@
         <v>500</v>
       </c>
       <c r="H57" s="3">
+        <v>500</v>
+      </c>
+      <c r="I57" s="3">
         <v>400</v>
-      </c>
-      <c r="I57" s="3">
-        <v>200</v>
       </c>
       <c r="J57" s="3">
         <v>200</v>
@@ -2910,11 +3041,11 @@
         <v>200</v>
       </c>
       <c r="L57" s="3">
+        <v>200</v>
+      </c>
+      <c r="M57" s="3">
         <v>100</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>4</v>
       </c>
@@ -2930,8 +3061,11 @@
       <c r="R57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2939,7 +3073,7 @@
         <v>500</v>
       </c>
       <c r="E58" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="F58" s="3">
         <v>400</v>
@@ -2948,10 +3082,10 @@
         <v>400</v>
       </c>
       <c r="H58" s="3">
+        <v>400</v>
+      </c>
+      <c r="I58" s="3">
         <v>300</v>
-      </c>
-      <c r="I58" s="3">
-        <v>200</v>
       </c>
       <c r="J58" s="3">
         <v>200</v>
@@ -2962,26 +3096,29 @@
       <c r="L58" s="3">
         <v>200</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>4</v>
+      <c r="M58" s="3">
+        <v>200</v>
       </c>
       <c r="N58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O58" s="3">
-        <v>100</v>
+      <c r="O58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P58" s="3">
         <v>100</v>
       </c>
       <c r="Q58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R58" s="3">
+        <v>0</v>
+      </c>
+      <c r="S58" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2989,37 +3126,37 @@
         <v>800</v>
       </c>
       <c r="E59" s="3">
+        <v>800</v>
+      </c>
+      <c r="F59" s="3">
         <v>900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>400</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O59" s="3">
-        <v>200</v>
+      <c r="O59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P59" s="3">
         <v>200</v>
@@ -3028,10 +3165,13 @@
         <v>200</v>
       </c>
       <c r="R59" s="3">
+        <v>200</v>
+      </c>
+      <c r="S59" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3042,46 +3182,49 @@
         <v>1900</v>
       </c>
       <c r="F60" s="3">
+        <v>1900</v>
+      </c>
+      <c r="G60" s="3">
         <v>2400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1800</v>
-      </c>
-      <c r="H60" s="3">
-        <v>1300</v>
       </c>
       <c r="I60" s="3">
         <v>1300</v>
       </c>
       <c r="J60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="K60" s="3">
         <v>1000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>700</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O60" s="3">
-        <v>300</v>
+      <c r="O60" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P60" s="3">
         <v>300</v>
       </c>
       <c r="Q60" s="3">
+        <v>300</v>
+      </c>
+      <c r="R60" s="3">
         <v>200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3125,13 +3268,16 @@
         <v>0</v>
       </c>
       <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
         <v>100</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3180,8 +3326,11 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,8 +3485,11 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3342,46 +3500,49 @@
         <v>1900</v>
       </c>
       <c r="F66" s="3">
+        <v>1900</v>
+      </c>
+      <c r="G66" s="3">
         <v>2400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1800</v>
-      </c>
-      <c r="H66" s="3">
-        <v>1300</v>
       </c>
       <c r="I66" s="3">
         <v>1300</v>
       </c>
       <c r="J66" s="3">
+        <v>1300</v>
+      </c>
+      <c r="K66" s="3">
         <v>1000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>700</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O66" s="3">
-        <v>300</v>
+      <c r="O66" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P66" s="3">
         <v>300</v>
       </c>
       <c r="Q66" s="3">
+        <v>300</v>
+      </c>
+      <c r="R66" s="3">
         <v>200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-35100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-34700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-34600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-35000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-33700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-32800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-32700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-35500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-13400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-9800</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O72" s="3">
+      <c r="O72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P72" s="3">
         <v>-2000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-1700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,46 +3983,49 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-1800</v>
+        <v>-1700</v>
       </c>
       <c r="E76" s="3">
         <v>-1800</v>
       </c>
       <c r="F76" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="G76" s="3">
         <v>-2200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-1600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-1500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1800</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O76" s="3">
-        <v>-100</v>
+      <c r="O76" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P76" s="3">
         <v>-100</v>
@@ -3848,10 +4034,13 @@
         <v>-100</v>
       </c>
       <c r="R76" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="S76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44227</v>
+      </c>
+      <c r="E80" s="2">
         <v>44135</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44043</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43951</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43861</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43769</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43677</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43585</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43496</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43404</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43312</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43220</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>41759</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>41670</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>41578</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>41486</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>2800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-22100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-3500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-5500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-200</v>
-      </c>
-      <c r="O81" s="3">
-        <v>-100</v>
       </c>
       <c r="P81" s="3">
         <v>-100</v>
       </c>
       <c r="Q81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R81" s="3">
         <v>-200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,8 +4223,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4063,8 +4262,8 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>4</v>
+      <c r="O83" s="3">
+        <v>0</v>
       </c>
       <c r="P83" s="3" t="s">
         <v>4</v>
@@ -4075,8 +4274,11 @@
       <c r="R83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,19 +4539,22 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-200</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-100</v>
       </c>
       <c r="G89" s="3">
         <v>-100</v>
@@ -4346,26 +4563,26 @@
         <v>-100</v>
       </c>
       <c r="I89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J89" s="3">
         <v>-200</v>
       </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
       <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
         <v>-100</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
       <c r="M89" s="3">
         <v>0</v>
       </c>
       <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
         <v>-100</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
       <c r="P89" s="3">
         <v>0</v>
       </c>
@@ -4375,8 +4592,11 @@
       <c r="R89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,8 +4615,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4433,8 +4654,8 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>4</v>
+      <c r="O91" s="3">
+        <v>0</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>4</v>
@@ -4445,8 +4666,11 @@
       <c r="R91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,8 +4772,11 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4554,20 +4784,20 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>200</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
         <v>0</v>
       </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>-200</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
         <v>0</v>
       </c>
@@ -4595,8 +4825,11 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,16 +5058,19 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F100" s="3">
         <v>100</v>
@@ -4833,20 +5079,20 @@
         <v>100</v>
       </c>
       <c r="H100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>500</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>100</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
         <v>0</v>
       </c>
@@ -4865,8 +5111,11 @@
       <c r="R100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4915,13 +5164,16 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E102" s="3">
         <v>0</v>
@@ -4933,14 +5185,14 @@
         <v>0</v>
       </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>-300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>300</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
         <v>0</v>
       </c>
@@ -4963,6 +5215,9 @@
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/THCT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/THCT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="92">
   <si>
     <t>THCT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,85 +665,88 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44316</v>
+      </c>
+      <c r="E7" s="2">
         <v>44227</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44135</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44043</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43951</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43861</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43769</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43677</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43585</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43496</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43404</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43312</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43220</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>41759</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>41670</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>41578</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>41486</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -795,8 +798,11 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -848,8 +854,11 @@
       <c r="S9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -901,8 +910,11 @@
       <c r="S10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,8 +934,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -975,8 +988,11 @@
       <c r="S12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,49 +1044,52 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>4</v>
+      <c r="D14" s="3">
+        <v>0</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>200</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>-7700</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>4900</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O14" s="3">
         <v>5200</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>4</v>
+      <c r="P14" s="3">
+        <v>0</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>4</v>
@@ -1081,8 +1100,11 @@
       <c r="S14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1122,8 +1144,8 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-      <c r="P15" s="3" t="s">
-        <v>4</v>
+      <c r="P15" s="3">
+        <v>0</v>
       </c>
       <c r="Q15" s="3" t="s">
         <v>4</v>
@@ -1134,8 +1156,11 @@
       <c r="S15" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,61 +1177,65 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>200</v>
+      </c>
+      <c r="E17" s="3">
         <v>300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>-2800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>18700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>5500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>200</v>
-      </c>
-      <c r="P17" s="3">
-        <v>100</v>
       </c>
       <c r="Q17" s="3">
         <v>100</v>
       </c>
       <c r="R17" s="3">
+        <v>100</v>
+      </c>
+      <c r="S17" s="3">
         <v>200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1214,52 +1243,55 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F18" s="3">
         <v>-100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-18700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-2700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-5500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-200</v>
-      </c>
-      <c r="P18" s="3">
-        <v>-100</v>
       </c>
       <c r="Q18" s="3">
         <v>-100</v>
       </c>
       <c r="R18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S18" s="3">
         <v>-200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,8 +1311,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1291,29 +1324,29 @@
         <v>100</v>
       </c>
       <c r="F20" s="3">
+        <v>100</v>
+      </c>
+      <c r="G20" s="3">
         <v>700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-400</v>
-      </c>
-      <c r="I20" s="3">
-        <v>100</v>
       </c>
       <c r="J20" s="3">
         <v>100</v>
       </c>
       <c r="K20" s="3">
+        <v>100</v>
+      </c>
+      <c r="L20" s="3">
         <v>-3200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-800</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
@@ -1330,10 +1363,13 @@
         <v>0</v>
       </c>
       <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1341,41 +1377,41 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3">
         <v>500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-700</v>
       </c>
-      <c r="I21" s="3">
-        <v>0</v>
-      </c>
       <c r="J21" s="3">
+        <v>0</v>
+      </c>
+      <c r="K21" s="3">
         <v>2900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-21900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-3500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-5500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-200</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1385,8 +1421,11 @@
       <c r="S21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1412,11 +1451,11 @@
         <v>100</v>
       </c>
       <c r="K22" s="3">
+        <v>100</v>
+      </c>
+      <c r="L22" s="3">
         <v>200</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
       <c r="M22" s="3">
         <v>0</v>
       </c>
@@ -1438,8 +1477,11 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1447,52 +1489,55 @@
         <v>-400</v>
       </c>
       <c r="E23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F23" s="3">
         <v>-100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-22100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-3500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-5500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-200</v>
-      </c>
-      <c r="P23" s="3">
-        <v>-100</v>
       </c>
       <c r="Q23" s="3">
         <v>-100</v>
       </c>
       <c r="R23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S23" s="3">
         <v>-200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1544,8 +1589,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,8 +1645,11 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1606,52 +1657,55 @@
         <v>-400</v>
       </c>
       <c r="E26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F26" s="3">
         <v>-100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>2800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-22100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-3500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-5500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-200</v>
-      </c>
-      <c r="P26" s="3">
-        <v>-100</v>
       </c>
       <c r="Q26" s="3">
         <v>-100</v>
       </c>
       <c r="R26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S26" s="3">
         <v>-200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1659,52 +1713,55 @@
         <v>-400</v>
       </c>
       <c r="E27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F27" s="3">
         <v>-100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>2800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-22100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-3500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-5500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-200</v>
-      </c>
-      <c r="P27" s="3">
-        <v>-100</v>
       </c>
       <c r="Q27" s="3">
         <v>-100</v>
       </c>
       <c r="R27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S27" s="3">
         <v>-200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1813,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1869,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1925,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,8 +1981,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1927,29 +1996,29 @@
         <v>-100</v>
       </c>
       <c r="F32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G32" s="3">
         <v>-700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>400</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-100</v>
       </c>
       <c r="J32" s="3">
         <v>-100</v>
       </c>
       <c r="K32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L32" s="3">
         <v>3200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>800</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
@@ -1966,10 +2035,13 @@
         <v>0</v>
       </c>
       <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1977,52 +2049,55 @@
         <v>-400</v>
       </c>
       <c r="E33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F33" s="3">
         <v>-100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>2800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-22100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-3500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-5500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-200</v>
-      </c>
-      <c r="P33" s="3">
-        <v>-100</v>
       </c>
       <c r="Q33" s="3">
         <v>-100</v>
       </c>
       <c r="R33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S33" s="3">
         <v>-200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,8 +2149,11 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2083,110 +2161,116 @@
         <v>-400</v>
       </c>
       <c r="E35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F35" s="3">
         <v>-100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>2800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-22100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-3500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-5500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-200</v>
-      </c>
-      <c r="P35" s="3">
-        <v>-100</v>
       </c>
       <c r="Q35" s="3">
         <v>-100</v>
       </c>
       <c r="R35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S35" s="3">
         <v>-200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44316</v>
+      </c>
+      <c r="E38" s="2">
         <v>44227</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44135</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44043</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43951</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43861</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43769</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43677</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43585</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43496</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43404</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43312</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43220</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>41759</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>41670</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>41578</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>41486</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2290,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,17 +2312,18 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>0</v>
+      </c>
+      <c r="E41" s="3">
         <v>200</v>
       </c>
-      <c r="E41" s="3">
-        <v>0</v>
-      </c>
       <c r="F41" s="3">
         <v>0</v>
       </c>
@@ -2248,28 +2334,28 @@
         <v>0</v>
       </c>
       <c r="I41" s="3">
+        <v>0</v>
+      </c>
+      <c r="J41" s="3">
         <v>100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>300</v>
       </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
       <c r="L41" s="3">
         <v>0</v>
       </c>
       <c r="M41" s="3">
         <v>0</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>4</v>
+      <c r="N41" s="3">
+        <v>0</v>
       </c>
       <c r="O41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P41" s="3">
-        <v>0</v>
+      <c r="P41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q41" s="3">
         <v>0</v>
@@ -2280,8 +2366,11 @@
       <c r="S41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,8 +2422,11 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2386,8 +2478,11 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,19 +2534,22 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
         <v>0</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F45" s="3">
-        <v>0</v>
+      <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G45" s="3">
         <v>0</v>
@@ -2460,19 +2558,19 @@
         <v>0</v>
       </c>
       <c r="I45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J45" s="3">
         <v>100</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L45" s="3">
-        <v>0</v>
-      </c>
-      <c r="M45" s="3" t="s">
-        <v>4</v>
+      <c r="K45" s="3">
+        <v>100</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M45" s="3">
+        <v>0</v>
       </c>
       <c r="N45" s="3" t="s">
         <v>4</v>
@@ -2480,8 +2578,8 @@
       <c r="O45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P45" s="3">
-        <v>0</v>
+      <c r="P45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q45" s="3">
         <v>0</v>
@@ -2492,17 +2590,20 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>100</v>
+      </c>
+      <c r="E46" s="3">
         <v>200</v>
       </c>
-      <c r="E46" s="3">
-        <v>0</v>
-      </c>
       <c r="F46" s="3">
         <v>0</v>
       </c>
@@ -2513,28 +2614,28 @@
         <v>0</v>
       </c>
       <c r="I46" s="3">
+        <v>0</v>
+      </c>
+      <c r="J46" s="3">
         <v>200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>500</v>
       </c>
-      <c r="K46" s="3">
-        <v>0</v>
-      </c>
       <c r="L46" s="3">
         <v>0</v>
       </c>
       <c r="M46" s="3">
         <v>0</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>4</v>
+      <c r="N46" s="3">
+        <v>0</v>
       </c>
       <c r="O46" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P46" s="3">
-        <v>0</v>
+      <c r="P46" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q46" s="3">
         <v>0</v>
@@ -2545,8 +2646,11 @@
       <c r="S46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2559,17 +2663,17 @@
       <c r="F47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G47" s="3">
-        <v>200</v>
+      <c r="G47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H47" s="3">
         <v>200</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0</v>
+      <c r="I47" s="3">
+        <v>200</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
@@ -2578,11 +2682,11 @@
         <v>0</v>
       </c>
       <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3">
         <v>2400</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O47" s="3" t="s">
         <v>4</v>
       </c>
@@ -2598,8 +2702,11 @@
       <c r="S47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2631,11 +2738,11 @@
         <v>0</v>
       </c>
       <c r="M48" s="3">
+        <v>0</v>
+      </c>
+      <c r="N48" s="3">
         <v>100</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O48" s="3" t="s">
         <v>4</v>
       </c>
@@ -2651,8 +2758,11 @@
       <c r="S48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2686,14 +2796,14 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>4</v>
+      <c r="N49" s="3">
+        <v>0</v>
       </c>
       <c r="O49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P49" s="3">
-        <v>200</v>
+      <c r="P49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q49" s="3">
         <v>200</v>
@@ -2704,8 +2814,11 @@
       <c r="S49" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2870,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,13 +2926,16 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>4</v>
+      <c r="D52" s="3">
+        <v>200</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>4</v>
@@ -2830,12 +2949,12 @@
       <c r="H52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I52" s="3">
+      <c r="I52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J52" s="3">
         <v>200</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>4</v>
       </c>
@@ -2851,8 +2970,8 @@
       <c r="O52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P52" s="3">
-        <v>0</v>
+      <c r="P52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q52" s="3">
         <v>0</v>
@@ -2863,8 +2982,11 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,8 +3038,11 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2925,40 +3050,40 @@
         <v>200</v>
       </c>
       <c r="E54" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F54" s="3">
+        <v>0</v>
+      </c>
+      <c r="G54" s="3">
         <v>100</v>
-      </c>
-      <c r="G54" s="3">
-        <v>200</v>
       </c>
       <c r="H54" s="3">
         <v>200</v>
       </c>
       <c r="I54" s="3">
+        <v>200</v>
+      </c>
+      <c r="J54" s="3">
         <v>400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>500</v>
-      </c>
-      <c r="K54" s="3">
-        <v>100</v>
       </c>
       <c r="L54" s="3">
         <v>100</v>
       </c>
       <c r="M54" s="3">
+        <v>100</v>
+      </c>
+      <c r="N54" s="3">
         <v>2500</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P54" s="3">
-        <v>200</v>
+      <c r="P54" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q54" s="3">
         <v>200</v>
@@ -2969,8 +3094,11 @@
       <c r="S54" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3118,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,19 +3140,20 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="E57" s="3">
         <v>600</v>
       </c>
       <c r="F57" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="G57" s="3">
         <v>500</v>
@@ -3032,10 +3162,10 @@
         <v>500</v>
       </c>
       <c r="I57" s="3">
+        <v>500</v>
+      </c>
+      <c r="J57" s="3">
         <v>400</v>
-      </c>
-      <c r="J57" s="3">
-        <v>200</v>
       </c>
       <c r="K57" s="3">
         <v>200</v>
@@ -3044,11 +3174,11 @@
         <v>200</v>
       </c>
       <c r="M57" s="3">
+        <v>200</v>
+      </c>
+      <c r="N57" s="3">
         <v>100</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O57" s="3" t="s">
         <v>4</v>
       </c>
@@ -3064,19 +3194,22 @@
       <c r="S57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E58" s="3">
         <v>500</v>
       </c>
       <c r="F58" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="G58" s="3">
         <v>400</v>
@@ -3085,10 +3218,10 @@
         <v>400</v>
       </c>
       <c r="I58" s="3">
+        <v>400</v>
+      </c>
+      <c r="J58" s="3">
         <v>300</v>
-      </c>
-      <c r="J58" s="3">
-        <v>200</v>
       </c>
       <c r="K58" s="3">
         <v>200</v>
@@ -3099,26 +3232,29 @@
       <c r="M58" s="3">
         <v>200</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>4</v>
+      <c r="N58" s="3">
+        <v>200</v>
       </c>
       <c r="O58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P58" s="3">
-        <v>100</v>
+      <c r="P58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q58" s="3">
         <v>100</v>
       </c>
       <c r="R58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S58" s="3">
+        <v>0</v>
+      </c>
+      <c r="T58" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3129,37 +3265,37 @@
         <v>800</v>
       </c>
       <c r="F59" s="3">
+        <v>800</v>
+      </c>
+      <c r="G59" s="3">
         <v>900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>400</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P59" s="3">
-        <v>200</v>
+      <c r="P59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q59" s="3">
         <v>200</v>
@@ -3168,15 +3304,18 @@
         <v>200</v>
       </c>
       <c r="S59" s="3">
+        <v>200</v>
+      </c>
+      <c r="T59" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1900</v>
+        <v>2100</v>
       </c>
       <c r="E60" s="3">
         <v>1900</v>
@@ -3185,46 +3324,49 @@
         <v>1900</v>
       </c>
       <c r="G60" s="3">
+        <v>1900</v>
+      </c>
+      <c r="H60" s="3">
         <v>2400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1800</v>
-      </c>
-      <c r="I60" s="3">
-        <v>1300</v>
       </c>
       <c r="J60" s="3">
         <v>1300</v>
       </c>
       <c r="K60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="L60" s="3">
         <v>1000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>700</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O60" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P60" s="3">
-        <v>300</v>
+      <c r="P60" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q60" s="3">
         <v>300</v>
       </c>
       <c r="R60" s="3">
+        <v>300</v>
+      </c>
+      <c r="S60" s="3">
         <v>200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3271,13 +3413,16 @@
         <v>0</v>
       </c>
       <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
         <v>100</v>
       </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3329,8 +3474,11 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3530,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3586,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,13 +3642,16 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1900</v>
+        <v>2100</v>
       </c>
       <c r="E66" s="3">
         <v>1900</v>
@@ -3503,46 +3660,49 @@
         <v>1900</v>
       </c>
       <c r="G66" s="3">
+        <v>1900</v>
+      </c>
+      <c r="H66" s="3">
         <v>2400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1800</v>
-      </c>
-      <c r="I66" s="3">
-        <v>1300</v>
       </c>
       <c r="J66" s="3">
         <v>1300</v>
       </c>
       <c r="K66" s="3">
+        <v>1300</v>
+      </c>
+      <c r="L66" s="3">
         <v>1000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>700</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P66" s="3">
-        <v>300</v>
+      <c r="P66" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q66" s="3">
         <v>300</v>
       </c>
       <c r="R66" s="3">
+        <v>300</v>
+      </c>
+      <c r="S66" s="3">
         <v>200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3722,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3776,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3832,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3888,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3944,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-35400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-35100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-34700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-34600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-35000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-33700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-32800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-32700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-35500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-13400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-9800</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P72" s="3">
+      <c r="P72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q72" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-1900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-1700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4056,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4112,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,49 +4168,52 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E76" s="3">
         <v>-1700</v>
-      </c>
-      <c r="E76" s="3">
-        <v>-1800</v>
       </c>
       <c r="F76" s="3">
         <v>-1800</v>
       </c>
       <c r="G76" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="H76" s="3">
         <v>-2200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-1600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-1500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1800</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O76" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P76" s="3">
-        <v>-100</v>
+      <c r="P76" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q76" s="3">
         <v>-100</v>
@@ -4037,10 +4222,13 @@
         <v>-100</v>
       </c>
       <c r="S76" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="T76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,66 +4280,72 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44316</v>
+      </c>
+      <c r="E80" s="2">
         <v>44227</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44135</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44043</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43951</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43861</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43769</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43677</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43585</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43496</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43404</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43312</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43220</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>41759</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>41670</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>41578</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>41486</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4159,52 +4353,55 @@
         <v>-400</v>
       </c>
       <c r="E81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F81" s="3">
         <v>-100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>2800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-22100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-3500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-5500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-200</v>
-      </c>
-      <c r="P81" s="3">
-        <v>-100</v>
       </c>
       <c r="Q81" s="3">
         <v>-100</v>
       </c>
       <c r="R81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S81" s="3">
         <v>-200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4421,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4265,8 +4463,8 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>4</v>
+      <c r="P83" s="3">
+        <v>0</v>
       </c>
       <c r="Q83" s="3" t="s">
         <v>4</v>
@@ -4277,8 +4475,11 @@
       <c r="S83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4531,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4587,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4643,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4699,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,22 +4755,25 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-200</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-100</v>
       </c>
       <c r="H89" s="3">
         <v>-100</v>
@@ -4566,26 +4782,26 @@
         <v>-100</v>
       </c>
       <c r="J89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K89" s="3">
         <v>-200</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
       <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
       <c r="N89" s="3">
         <v>0</v>
       </c>
       <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
         <v>-100</v>
       </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
       <c r="Q89" s="3">
         <v>0</v>
       </c>
@@ -4595,8 +4811,11 @@
       <c r="S89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +4835,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4657,8 +4877,8 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>4</v>
+      <c r="P91" s="3">
+        <v>0</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>4</v>
@@ -4669,8 +4889,11 @@
       <c r="S91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4945,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,32 +5001,35 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
       </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>200</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
         <v>0</v>
       </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>-200</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
@@ -4828,8 +5057,11 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5081,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5135,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5191,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5247,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,19 +5303,22 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>200</v>
+      </c>
+      <c r="E100" s="3">
         <v>300</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G100" s="3">
         <v>100</v>
@@ -5082,20 +5327,20 @@
         <v>100</v>
       </c>
       <c r="I100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>500</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>100</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
         <v>0</v>
       </c>
@@ -5114,8 +5359,11 @@
       <c r="S100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,17 +5415,20 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E102" s="3">
         <v>100</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
       <c r="F102" s="3">
         <v>0</v>
       </c>
@@ -5188,14 +5439,14 @@
         <v>0</v>
       </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>-300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>300</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
         <v>0</v>
       </c>
@@ -5218,6 +5469,9 @@
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/THCT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/THCT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="92">
   <si>
     <t>THCT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,88 +665,92 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E7" s="2">
         <v>44316</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44227</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44135</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44043</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43951</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43861</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43769</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43677</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43585</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43496</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43404</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43312</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43220</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>41759</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>41670</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>41578</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>41486</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -801,8 +805,11 @@
       <c r="T8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -857,8 +864,11 @@
       <c r="T9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -913,8 +923,11 @@
       <c r="T10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -935,8 +948,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -991,8 +1005,11 @@
       <c r="T12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1047,52 +1064,55 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
         <v>0</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
+      <c r="E14" s="3">
+        <v>0</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>200</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>-7700</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>4900</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O14" s="3">
+      <c r="O14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P14" s="3">
         <v>5200</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>4</v>
+      <c r="Q14" s="3">
+        <v>0</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>4</v>
@@ -1103,13 +1123,16 @@
       <c r="T14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>0</v>
+      <c r="D15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E15" s="3">
         <v>0</v>
@@ -1147,8 +1170,8 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-      <c r="Q15" s="3" t="s">
-        <v>4</v>
+      <c r="Q15" s="3">
+        <v>0</v>
       </c>
       <c r="R15" s="3" t="s">
         <v>4</v>
@@ -1159,8 +1182,11 @@
       <c r="T15" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1178,64 +1204,68 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>300</v>
+      </c>
+      <c r="E17" s="3">
         <v>200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
+        <v>300</v>
+      </c>
+      <c r="I17" s="3">
+        <v>700</v>
+      </c>
+      <c r="J17" s="3">
+        <v>400</v>
+      </c>
+      <c r="K17" s="3">
         <v>200</v>
       </c>
-      <c r="H17" s="3">
-        <v>700</v>
-      </c>
-      <c r="I17" s="3">
+      <c r="L17" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="M17" s="3">
+        <v>18700</v>
+      </c>
+      <c r="N17" s="3">
+        <v>2700</v>
+      </c>
+      <c r="O17" s="3">
         <v>400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="P17" s="3">
+        <v>5500</v>
+      </c>
+      <c r="Q17" s="3">
         <v>200</v>
-      </c>
-      <c r="K17" s="3">
-        <v>-2800</v>
-      </c>
-      <c r="L17" s="3">
-        <v>18700</v>
-      </c>
-      <c r="M17" s="3">
-        <v>2700</v>
-      </c>
-      <c r="N17" s="3">
-        <v>400</v>
-      </c>
-      <c r="O17" s="3">
-        <v>5500</v>
-      </c>
-      <c r="P17" s="3">
-        <v>200</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>100</v>
       </c>
       <c r="R17" s="3">
         <v>100</v>
       </c>
       <c r="S17" s="3">
+        <v>100</v>
+      </c>
+      <c r="T17" s="3">
         <v>200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1243,55 +1273,58 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F18" s="3">
         <v>-300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K18" s="3">
         <v>-200</v>
       </c>
-      <c r="H18" s="3">
-        <v>-700</v>
-      </c>
-      <c r="I18" s="3">
+      <c r="L18" s="3">
+        <v>2800</v>
+      </c>
+      <c r="M18" s="3">
+        <v>-18700</v>
+      </c>
+      <c r="N18" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="O18" s="3">
         <v>-400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="P18" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-200</v>
-      </c>
-      <c r="K18" s="3">
-        <v>2800</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-18700</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-2700</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-400</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-5500</v>
-      </c>
-      <c r="P18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>-100</v>
       </c>
       <c r="R18" s="3">
         <v>-100</v>
       </c>
       <c r="S18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T18" s="3">
         <v>-200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1312,8 +1345,9 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1321,35 +1355,35 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="F20" s="3">
         <v>100</v>
       </c>
       <c r="G20" s="3">
-        <v>700</v>
+        <v>100</v>
       </c>
       <c r="H20" s="3">
+        <v>800</v>
+      </c>
+      <c r="I20" s="3">
         <v>-500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-400</v>
-      </c>
-      <c r="J20" s="3">
-        <v>100</v>
       </c>
       <c r="K20" s="3">
         <v>100</v>
       </c>
       <c r="L20" s="3">
+        <v>100</v>
+      </c>
+      <c r="M20" s="3">
         <v>-3200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-800</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
@@ -1366,10 +1400,13 @@
         <v>0</v>
       </c>
       <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1380,41 +1417,41 @@
         <v>-300</v>
       </c>
       <c r="F21" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="G21" s="3">
+        <v>0</v>
+      </c>
+      <c r="H21" s="3">
         <v>500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-700</v>
       </c>
-      <c r="J21" s="3">
-        <v>0</v>
-      </c>
       <c r="K21" s="3">
+        <v>0</v>
+      </c>
+      <c r="L21" s="3">
         <v>2900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-21900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-3500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-5500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-200</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1424,13 +1461,16 @@
       <c r="T21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E22" s="3">
         <v>100</v>
@@ -1454,11 +1494,11 @@
         <v>100</v>
       </c>
       <c r="L22" s="3">
+        <v>100</v>
+      </c>
+      <c r="M22" s="3">
         <v>200</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
       <c r="N22" s="3">
         <v>0</v>
       </c>
@@ -1480,64 +1520,70 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-400</v>
+        <v>-1100</v>
       </c>
       <c r="E23" s="3">
         <v>-400</v>
       </c>
       <c r="F23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G23" s="3">
         <v>-100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-22100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-3500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-5500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-200</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>-100</v>
       </c>
       <c r="R23" s="3">
         <v>-100</v>
       </c>
       <c r="S23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T23" s="3">
         <v>-200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1592,8 +1638,11 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1648,120 +1697,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-400</v>
+        <v>-1100</v>
       </c>
       <c r="E26" s="3">
         <v>-400</v>
       </c>
       <c r="F26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G26" s="3">
         <v>-100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-22100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-3500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-5500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-200</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>-100</v>
       </c>
       <c r="R26" s="3">
         <v>-100</v>
       </c>
       <c r="S26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T26" s="3">
         <v>-200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-400</v>
+        <v>-1100</v>
       </c>
       <c r="E27" s="3">
         <v>-400</v>
       </c>
       <c r="F27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G27" s="3">
         <v>-100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-22100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-3500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-5500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-200</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>-100</v>
       </c>
       <c r="R27" s="3">
         <v>-100</v>
       </c>
       <c r="S27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T27" s="3">
         <v>-200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1816,8 +1874,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1872,8 +1933,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1928,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1984,8 +2051,11 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1993,35 +2063,35 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F32" s="3">
         <v>-100</v>
       </c>
       <c r="G32" s="3">
-        <v>-700</v>
+        <v>-100</v>
       </c>
       <c r="H32" s="3">
+        <v>-800</v>
+      </c>
+      <c r="I32" s="3">
         <v>500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>400</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-100</v>
       </c>
       <c r="K32" s="3">
         <v>-100</v>
       </c>
       <c r="L32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M32" s="3">
         <v>3200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>800</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
@@ -2038,66 +2108,72 @@
         <v>0</v>
       </c>
       <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-400</v>
+        <v>-1100</v>
       </c>
       <c r="E33" s="3">
         <v>-400</v>
       </c>
       <c r="F33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G33" s="3">
         <v>-100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-22100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-3500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-5500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-200</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>-100</v>
       </c>
       <c r="R33" s="3">
         <v>-100</v>
       </c>
       <c r="S33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T33" s="3">
         <v>-200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2152,125 +2228,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-400</v>
+        <v>-1100</v>
       </c>
       <c r="E35" s="3">
         <v>-400</v>
       </c>
       <c r="F35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G35" s="3">
         <v>-100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-22100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-3500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-5500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-200</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>-100</v>
       </c>
       <c r="R35" s="3">
         <v>-100</v>
       </c>
       <c r="S35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T35" s="3">
         <v>-200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E38" s="2">
         <v>44316</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44227</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44135</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44043</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43951</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43861</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43769</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43677</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43585</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43496</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43404</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43312</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43220</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>41759</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>41670</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>41578</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>41486</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2291,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2313,20 +2399,21 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
         <v>200</v>
       </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
       <c r="G41" s="3">
         <v>0</v>
       </c>
@@ -2337,28 +2424,28 @@
         <v>0</v>
       </c>
       <c r="J41" s="3">
+        <v>0</v>
+      </c>
+      <c r="K41" s="3">
         <v>100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>300</v>
       </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
       <c r="M41" s="3">
         <v>0</v>
       </c>
       <c r="N41" s="3">
         <v>0</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>4</v>
+      <c r="O41" s="3">
+        <v>0</v>
       </c>
       <c r="P41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q41" s="3">
-        <v>0</v>
+      <c r="Q41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R41" s="3">
         <v>0</v>
@@ -2369,8 +2456,11 @@
       <c r="T41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2425,8 +2515,11 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2481,31 +2574,34 @@
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
         <v>0</v>
       </c>
-      <c r="E44" s="3">
-        <v>0</v>
-      </c>
-      <c r="F44" s="3">
-        <v>0</v>
-      </c>
-      <c r="G44" s="3">
-        <v>0</v>
+      <c r="E44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H44" s="3">
         <v>0</v>
       </c>
-      <c r="I44" s="3">
-        <v>0</v>
-      </c>
-      <c r="J44" s="3">
-        <v>0</v>
+      <c r="I44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K44" s="3">
         <v>0</v>
@@ -2537,8 +2633,11 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2548,11 +2647,11 @@
       <c r="E45" s="3">
         <v>0</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G45" s="3">
-        <v>0</v>
+      <c r="F45" s="3">
+        <v>0</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H45" s="3">
         <v>0</v>
@@ -2561,19 +2660,19 @@
         <v>0</v>
       </c>
       <c r="J45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K45" s="3">
         <v>100</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M45" s="3">
-        <v>0</v>
-      </c>
-      <c r="N45" s="3" t="s">
-        <v>4</v>
+      <c r="L45" s="3">
+        <v>100</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N45" s="3">
+        <v>0</v>
       </c>
       <c r="O45" s="3" t="s">
         <v>4</v>
@@ -2581,8 +2680,8 @@
       <c r="P45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q45" s="3">
-        <v>0</v>
+      <c r="Q45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R45" s="3">
         <v>0</v>
@@ -2593,20 +2692,23 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>300</v>
+      </c>
+      <c r="E46" s="3">
         <v>100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>200</v>
       </c>
-      <c r="F46" s="3">
-        <v>0</v>
-      </c>
       <c r="G46" s="3">
         <v>0</v>
       </c>
@@ -2617,28 +2719,28 @@
         <v>0</v>
       </c>
       <c r="J46" s="3">
+        <v>0</v>
+      </c>
+      <c r="K46" s="3">
         <v>200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>500</v>
       </c>
-      <c r="L46" s="3">
-        <v>0</v>
-      </c>
       <c r="M46" s="3">
         <v>0</v>
       </c>
       <c r="N46" s="3">
         <v>0</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>4</v>
+      <c r="O46" s="3">
+        <v>0</v>
       </c>
       <c r="P46" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q46" s="3">
-        <v>0</v>
+      <c r="Q46" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R46" s="3">
         <v>0</v>
@@ -2649,8 +2751,11 @@
       <c r="T46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2666,17 +2771,17 @@
       <c r="G47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H47" s="3">
-        <v>200</v>
+      <c r="H47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I47" s="3">
         <v>200</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K47" s="3">
-        <v>0</v>
+      <c r="J47" s="3">
+        <v>200</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L47" s="3">
         <v>0</v>
@@ -2685,11 +2790,11 @@
         <v>0</v>
       </c>
       <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3">
         <v>2400</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P47" s="3" t="s">
         <v>4</v>
       </c>
@@ -2705,8 +2810,11 @@
       <c r="T47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2741,11 +2849,11 @@
         <v>0</v>
       </c>
       <c r="N48" s="3">
+        <v>0</v>
+      </c>
+      <c r="O48" s="3">
         <v>100</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P48" s="3" t="s">
         <v>4</v>
       </c>
@@ -2761,8 +2869,11 @@
       <c r="T48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2799,14 +2910,14 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>4</v>
+      <c r="O49" s="3">
+        <v>0</v>
       </c>
       <c r="P49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q49" s="3">
-        <v>200</v>
+      <c r="Q49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R49" s="3">
         <v>200</v>
@@ -2817,8 +2928,11 @@
       <c r="T49" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2873,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2929,16 +3046,19 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
         <v>200</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>4</v>
+      <c r="E52" s="3">
+        <v>200</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>4</v>
@@ -2952,12 +3072,12 @@
       <c r="I52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J52" s="3">
+      <c r="J52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K52" s="3">
         <v>200</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>4</v>
       </c>
@@ -2973,8 +3093,8 @@
       <c r="P52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q52" s="3">
-        <v>0</v>
+      <c r="Q52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R52" s="3">
         <v>0</v>
@@ -2985,8 +3105,11 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3041,52 +3164,55 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="E54" s="3">
         <v>200</v>
       </c>
       <c r="F54" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G54" s="3">
+        <v>0</v>
+      </c>
+      <c r="H54" s="3">
         <v>100</v>
-      </c>
-      <c r="H54" s="3">
-        <v>200</v>
       </c>
       <c r="I54" s="3">
         <v>200</v>
       </c>
       <c r="J54" s="3">
+        <v>200</v>
+      </c>
+      <c r="K54" s="3">
         <v>400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>500</v>
-      </c>
-      <c r="L54" s="3">
-        <v>100</v>
       </c>
       <c r="M54" s="3">
         <v>100</v>
       </c>
       <c r="N54" s="3">
+        <v>100</v>
+      </c>
+      <c r="O54" s="3">
         <v>2500</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P54" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q54" s="3">
-        <v>200</v>
+      <c r="Q54" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R54" s="3">
         <v>200</v>
@@ -3097,8 +3223,11 @@
       <c r="T54" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3119,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3141,34 +3271,35 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>500</v>
+      </c>
+      <c r="E57" s="3">
         <v>700</v>
-      </c>
-      <c r="E57" s="3">
-        <v>600</v>
       </c>
       <c r="F57" s="3">
         <v>600</v>
       </c>
       <c r="G57" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="H57" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="I57" s="3">
         <v>500</v>
       </c>
       <c r="J57" s="3">
+        <v>500</v>
+      </c>
+      <c r="K57" s="3">
         <v>400</v>
-      </c>
-      <c r="K57" s="3">
-        <v>200</v>
       </c>
       <c r="L57" s="3">
         <v>200</v>
@@ -3177,11 +3308,11 @@
         <v>200</v>
       </c>
       <c r="N57" s="3">
+        <v>200</v>
+      </c>
+      <c r="O57" s="3">
         <v>100</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P57" s="3" t="s">
         <v>4</v>
       </c>
@@ -3197,22 +3328,25 @@
       <c r="T57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>800</v>
+      </c>
+      <c r="E58" s="3">
         <v>600</v>
-      </c>
-      <c r="E58" s="3">
-        <v>500</v>
       </c>
       <c r="F58" s="3">
         <v>500</v>
       </c>
       <c r="G58" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="H58" s="3">
         <v>400</v>
@@ -3221,10 +3355,10 @@
         <v>400</v>
       </c>
       <c r="J58" s="3">
+        <v>400</v>
+      </c>
+      <c r="K58" s="3">
         <v>300</v>
-      </c>
-      <c r="K58" s="3">
-        <v>200</v>
       </c>
       <c r="L58" s="3">
         <v>200</v>
@@ -3235,31 +3369,34 @@
       <c r="N58" s="3">
         <v>200</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>4</v>
+      <c r="O58" s="3">
+        <v>200</v>
       </c>
       <c r="P58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q58" s="3">
-        <v>100</v>
+      <c r="Q58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R58" s="3">
         <v>100</v>
       </c>
       <c r="S58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T58" s="3">
+        <v>0</v>
+      </c>
+      <c r="U58" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>800</v>
+        <v>1600</v>
       </c>
       <c r="E59" s="3">
         <v>800</v>
@@ -3268,37 +3405,37 @@
         <v>800</v>
       </c>
       <c r="G59" s="3">
+        <v>800</v>
+      </c>
+      <c r="H59" s="3">
+        <v>800</v>
+      </c>
+      <c r="I59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="J59" s="3">
         <v>900</v>
       </c>
-      <c r="H59" s="3">
-        <v>1500</v>
-      </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
+        <v>600</v>
+      </c>
+      <c r="L59" s="3">
         <v>900</v>
       </c>
-      <c r="J59" s="3">
-        <v>600</v>
-      </c>
-      <c r="K59" s="3">
-        <v>900</v>
-      </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>400</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q59" s="3">
-        <v>200</v>
+      <c r="Q59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R59" s="3">
         <v>200</v>
@@ -3307,18 +3444,21 @@
         <v>200</v>
       </c>
       <c r="T59" s="3">
+        <v>200</v>
+      </c>
+      <c r="U59" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E60" s="3">
         <v>2100</v>
-      </c>
-      <c r="E60" s="3">
-        <v>1900</v>
       </c>
       <c r="F60" s="3">
         <v>1900</v>
@@ -3327,46 +3467,49 @@
         <v>1900</v>
       </c>
       <c r="H60" s="3">
+        <v>1800</v>
+      </c>
+      <c r="I60" s="3">
         <v>2400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1800</v>
-      </c>
-      <c r="J60" s="3">
-        <v>1300</v>
       </c>
       <c r="K60" s="3">
         <v>1300</v>
       </c>
       <c r="L60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="M60" s="3">
         <v>1000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>700</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P60" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q60" s="3">
-        <v>300</v>
+      <c r="Q60" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R60" s="3">
         <v>300</v>
       </c>
       <c r="S60" s="3">
+        <v>300</v>
+      </c>
+      <c r="T60" s="3">
         <v>200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3416,36 +3559,39 @@
         <v>0</v>
       </c>
       <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
         <v>100</v>
       </c>
-      <c r="T61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
-      </c>
-      <c r="E62" s="3">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
@@ -3477,8 +3623,11 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3533,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3589,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3645,16 +3800,19 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E66" s="3">
         <v>2100</v>
-      </c>
-      <c r="E66" s="3">
-        <v>1900</v>
       </c>
       <c r="F66" s="3">
         <v>1900</v>
@@ -3663,46 +3821,49 @@
         <v>1900</v>
       </c>
       <c r="H66" s="3">
+        <v>1800</v>
+      </c>
+      <c r="I66" s="3">
         <v>2400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1800</v>
-      </c>
-      <c r="J66" s="3">
-        <v>1300</v>
       </c>
       <c r="K66" s="3">
         <v>1300</v>
       </c>
       <c r="L66" s="3">
+        <v>1300</v>
+      </c>
+      <c r="M66" s="3">
         <v>1000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>700</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P66" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q66" s="3">
-        <v>300</v>
+      <c r="Q66" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R66" s="3">
         <v>300</v>
       </c>
       <c r="S66" s="3">
+        <v>300</v>
+      </c>
+      <c r="T66" s="3">
         <v>200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3723,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3779,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3835,8 +4000,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3891,8 +4059,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3947,64 +4118,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-36500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-35400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-35100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-34700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-34600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-35000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-33700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-32800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-32700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-35500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-13400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-9800</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="Q72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R72" s="3">
         <v>-2000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-1900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-1700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4059,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4115,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4171,52 +4354,55 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E76" s="3">
         <v>-1900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-1700</v>
-      </c>
-      <c r="F76" s="3">
-        <v>-1800</v>
       </c>
       <c r="G76" s="3">
         <v>-1800</v>
       </c>
       <c r="H76" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="I76" s="3">
         <v>-2200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-1600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-1500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1800</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P76" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q76" s="3">
-        <v>-100</v>
+      <c r="Q76" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R76" s="3">
         <v>-100</v>
@@ -4225,10 +4411,13 @@
         <v>-100</v>
       </c>
       <c r="T76" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="U76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4283,125 +4472,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E80" s="2">
         <v>44316</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44227</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44135</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44043</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43951</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43861</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43769</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43677</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43585</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43496</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43404</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43312</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43220</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>41759</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>41670</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>41578</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>41486</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-400</v>
+        <v>-1100</v>
       </c>
       <c r="E81" s="3">
         <v>-400</v>
       </c>
       <c r="F81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G81" s="3">
         <v>-100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-22100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-3500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-5500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-200</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>-100</v>
       </c>
       <c r="R81" s="3">
         <v>-100</v>
       </c>
       <c r="S81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T81" s="3">
         <v>-200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4422,8 +4620,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4466,8 +4665,8 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>4</v>
+      <c r="Q83" s="3">
+        <v>0</v>
       </c>
       <c r="R83" s="3" t="s">
         <v>4</v>
@@ -4478,8 +4677,11 @@
       <c r="T83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4534,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4590,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4646,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4702,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4758,25 +4972,28 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
         <v>-100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-200</v>
-      </c>
-      <c r="H89" s="3">
-        <v>-100</v>
       </c>
       <c r="I89" s="3">
         <v>-100</v>
@@ -4785,26 +5002,26 @@
         <v>-100</v>
       </c>
       <c r="K89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L89" s="3">
         <v>-200</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
       <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
         <v>-100</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
       <c r="O89" s="3">
         <v>0</v>
       </c>
       <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-100</v>
       </c>
-      <c r="Q89" s="3">
-        <v>0</v>
-      </c>
       <c r="R89" s="3">
         <v>0</v>
       </c>
@@ -4814,8 +5031,11 @@
       <c r="T89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4836,8 +5056,9 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4880,8 +5101,8 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>4</v>
+      <c r="Q91" s="3">
+        <v>0</v>
       </c>
       <c r="R91" s="3" t="s">
         <v>4</v>
@@ -4892,8 +5113,11 @@
       <c r="T91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4948,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5004,35 +5231,38 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
         <v>-200</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
         <v>0</v>
       </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>200</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
         <v>0</v>
       </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-200</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
         <v>0</v>
       </c>
@@ -5060,8 +5290,11 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5082,8 +5315,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5138,8 +5372,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5194,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5250,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5306,22 +5549,25 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>300</v>
+      </c>
+      <c r="E100" s="3">
         <v>200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>300</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H100" s="3">
         <v>100</v>
@@ -5330,20 +5576,20 @@
         <v>100</v>
       </c>
       <c r="J100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>500</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>100</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
         <v>0</v>
       </c>
@@ -5362,8 +5608,11 @@
       <c r="T100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5418,20 +5667,23 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>100</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
         <v>0</v>
       </c>
@@ -5442,14 +5694,14 @@
         <v>0</v>
       </c>
       <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>-300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>300</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
         <v>0</v>
       </c>
@@ -5472,6 +5724,9 @@
         <v>0</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/THCT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/THCT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="92">
   <si>
     <t>THCT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,92 +665,103 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44681</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44592</v>
+      </c>
+      <c r="F7" s="2">
+        <v>44500</v>
+      </c>
+      <c r="G7" s="2">
         <v>44408</v>
       </c>
-      <c r="E7" s="2">
+      <c r="H7" s="2">
         <v>44316</v>
       </c>
-      <c r="F7" s="2">
+      <c r="I7" s="2">
         <v>44227</v>
       </c>
-      <c r="G7" s="2">
+      <c r="J7" s="2">
         <v>44135</v>
       </c>
-      <c r="H7" s="2">
+      <c r="K7" s="2">
         <v>44043</v>
       </c>
-      <c r="I7" s="2">
+      <c r="L7" s="2">
         <v>43951</v>
       </c>
-      <c r="J7" s="2">
+      <c r="M7" s="2">
         <v>43861</v>
       </c>
-      <c r="K7" s="2">
+      <c r="N7" s="2">
         <v>43769</v>
       </c>
-      <c r="L7" s="2">
+      <c r="O7" s="2">
         <v>43677</v>
       </c>
-      <c r="M7" s="2">
+      <c r="P7" s="2">
         <v>43585</v>
       </c>
-      <c r="N7" s="2">
+      <c r="Q7" s="2">
         <v>43496</v>
       </c>
-      <c r="O7" s="2">
+      <c r="R7" s="2">
         <v>43404</v>
       </c>
-      <c r="P7" s="2">
+      <c r="S7" s="2">
         <v>43312</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="T7" s="2">
         <v>43220</v>
       </c>
-      <c r="R7" s="2">
+      <c r="U7" s="2">
         <v>41759</v>
       </c>
-      <c r="S7" s="2">
+      <c r="V7" s="2">
         <v>41670</v>
       </c>
-      <c r="T7" s="2">
+      <c r="W7" s="2">
         <v>41578</v>
       </c>
-      <c r="U7" s="2">
+      <c r="X7" s="2">
         <v>41486</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -808,8 +819,17 @@
       <c r="U8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -867,8 +887,17 @@
       <c r="U9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -926,8 +955,17 @@
       <c r="U10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -949,8 +987,11 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1008,8 +1049,17 @@
       <c r="U12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1067,81 +1117,99 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>200</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>-7700</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>4900</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S14" s="3">
         <v>5200</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>4</v>
+      <c r="T14" s="3">
+        <v>0</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E15" s="3">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
+      <c r="E15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H15" s="3">
         <v>0</v>
@@ -1173,20 +1241,29 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-      <c r="R15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T15" s="3" t="s">
-        <v>4</v>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+      <c r="T15" s="3">
+        <v>0</v>
       </c>
       <c r="U15" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,67 +1282,79 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>100</v>
+      </c>
+      <c r="E17" s="3">
+        <v>900</v>
+      </c>
+      <c r="F17" s="3">
+        <v>200</v>
+      </c>
+      <c r="G17" s="3">
         <v>300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="H17" s="3">
         <v>200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="I17" s="3">
         <v>300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="J17" s="3">
         <v>100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="K17" s="3">
         <v>300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="L17" s="3">
         <v>700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="M17" s="3">
         <v>400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="N17" s="3">
         <v>200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="O17" s="3">
         <v>-2800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="P17" s="3">
         <v>18700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="Q17" s="3">
         <v>2700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="R17" s="3">
         <v>400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="S17" s="3">
         <v>5500</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>200</v>
-      </c>
-      <c r="R17" s="3">
-        <v>100</v>
-      </c>
-      <c r="S17" s="3">
-        <v>100</v>
       </c>
       <c r="T17" s="3">
         <v>200</v>
       </c>
       <c r="U17" s="3">
+        <v>100</v>
+      </c>
+      <c r="V17" s="3">
+        <v>100</v>
+      </c>
+      <c r="W17" s="3">
+        <v>200</v>
+      </c>
+      <c r="X17" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1273,58 +1362,67 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F18" s="3">
         <v>-200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J18" s="3">
         <v>-100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="K18" s="3">
         <v>-300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="L18" s="3">
         <v>-700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="M18" s="3">
         <v>-400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="N18" s="3">
         <v>-200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="O18" s="3">
         <v>2800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="P18" s="3">
         <v>-18700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="Q18" s="3">
         <v>-2700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="R18" s="3">
         <v>-400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="S18" s="3">
         <v>-5500</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="R18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="S18" s="3">
-        <v>-100</v>
       </c>
       <c r="T18" s="3">
         <v>-200</v>
       </c>
       <c r="U18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="X18" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,8 +1444,11 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1355,44 +1456,44 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>100</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G20" s="3">
+        <v>-500</v>
+      </c>
+      <c r="H20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="J20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="K20" s="3">
         <v>800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="L20" s="3">
         <v>-500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="M20" s="3">
         <v>-400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="N20" s="3">
         <v>100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="O20" s="3">
         <v>100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="P20" s="3">
         <v>-3200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="Q20" s="3">
         <v>-800</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
         <v>0</v>
       </c>
@@ -1403,10 +1504,19 @@
         <v>0</v>
       </c>
       <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1414,72 +1524,81 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G21" s="3">
+        <v>-800</v>
+      </c>
+      <c r="H21" s="3">
         <v>-300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="I21" s="3">
         <v>-300</v>
       </c>
-      <c r="G21" s="3">
-        <v>0</v>
-      </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
+        <v>0</v>
+      </c>
+      <c r="K21" s="3">
         <v>500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="L21" s="3">
         <v>-1100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="M21" s="3">
         <v>-700</v>
       </c>
-      <c r="K21" s="3">
-        <v>0</v>
-      </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
+        <v>0</v>
+      </c>
+      <c r="O21" s="3">
         <v>2900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="P21" s="3">
         <v>-21900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="Q21" s="3">
         <v>-3500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="R21" s="3">
         <v>-400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="S21" s="3">
         <v>-5500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="T21" s="3">
         <v>-200</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
         <v>300</v>
-      </c>
-      <c r="E22" s="3">
-        <v>100</v>
-      </c>
-      <c r="F22" s="3">
-        <v>100</v>
-      </c>
-      <c r="G22" s="3">
-        <v>100</v>
       </c>
       <c r="H22" s="3">
         <v>100</v>
@@ -1497,17 +1616,17 @@
         <v>100</v>
       </c>
       <c r="M22" s="3">
+        <v>100</v>
+      </c>
+      <c r="N22" s="3">
+        <v>100</v>
+      </c>
+      <c r="O22" s="3">
+        <v>100</v>
+      </c>
+      <c r="P22" s="3">
         <v>200</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
       <c r="Q22" s="3">
         <v>0</v>
       </c>
@@ -1523,67 +1642,85 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G23" s="3">
         <v>-1100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="H23" s="3">
         <v>-400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="I23" s="3">
         <v>-400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="J23" s="3">
         <v>-100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="K23" s="3">
         <v>300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="L23" s="3">
         <v>-1300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="M23" s="3">
         <v>-900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="N23" s="3">
         <v>-100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="O23" s="3">
         <v>2800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="P23" s="3">
         <v>-22100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="Q23" s="3">
         <v>-3500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="R23" s="3">
         <v>-400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="S23" s="3">
         <v>-5500</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>-200</v>
-      </c>
-      <c r="R23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="S23" s="3">
-        <v>-100</v>
       </c>
       <c r="T23" s="3">
         <v>-200</v>
       </c>
       <c r="U23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="X23" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1641,8 +1778,17 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,126 +1846,153 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G26" s="3">
         <v>-1100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="H26" s="3">
         <v>-400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="I26" s="3">
         <v>-400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="J26" s="3">
         <v>-100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="K26" s="3">
         <v>300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="L26" s="3">
         <v>-1300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="M26" s="3">
         <v>-900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="N26" s="3">
         <v>-100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="O26" s="3">
         <v>2800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="P26" s="3">
         <v>-22100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="Q26" s="3">
         <v>-3500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="R26" s="3">
         <v>-400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="S26" s="3">
         <v>-5500</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>-200</v>
-      </c>
-      <c r="R26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="S26" s="3">
-        <v>-100</v>
       </c>
       <c r="T26" s="3">
         <v>-200</v>
       </c>
       <c r="U26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="X26" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G27" s="3">
         <v>-1100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="H27" s="3">
         <v>-400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="I27" s="3">
         <v>-400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="J27" s="3">
         <v>-100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="K27" s="3">
         <v>300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="L27" s="3">
         <v>-1300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="M27" s="3">
         <v>-900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="N27" s="3">
         <v>-100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="O27" s="3">
         <v>2800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="P27" s="3">
         <v>-22100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="Q27" s="3">
         <v>-3500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="R27" s="3">
         <v>-400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="S27" s="3">
         <v>-5500</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>-200</v>
-      </c>
-      <c r="R27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="S27" s="3">
-        <v>-100</v>
       </c>
       <c r="T27" s="3">
         <v>-200</v>
       </c>
       <c r="U27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="X27" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,8 +2050,17 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1936,8 +2118,17 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2186,17 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,8 +2254,17 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2063,44 +2272,44 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F32" s="3">
+        <v>200</v>
+      </c>
+      <c r="G32" s="3">
+        <v>500</v>
+      </c>
+      <c r="H32" s="3">
         <v>100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="K32" s="3">
         <v>-800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="L32" s="3">
         <v>500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="M32" s="3">
         <v>400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="O32" s="3">
         <v>-100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="P32" s="3">
         <v>3200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="Q32" s="3">
         <v>800</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
         <v>0</v>
       </c>
@@ -2111,69 +2320,87 @@
         <v>0</v>
       </c>
       <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G33" s="3">
         <v>-1100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="H33" s="3">
         <v>-400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="I33" s="3">
         <v>-400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="J33" s="3">
         <v>-100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="K33" s="3">
         <v>300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="L33" s="3">
         <v>-1300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="M33" s="3">
         <v>-900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="N33" s="3">
         <v>-100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="O33" s="3">
         <v>2800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="P33" s="3">
         <v>-22100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="Q33" s="3">
         <v>-3500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="R33" s="3">
         <v>-400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="S33" s="3">
         <v>-5500</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>-200</v>
-      </c>
-      <c r="R33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="S33" s="3">
-        <v>-100</v>
       </c>
       <c r="T33" s="3">
         <v>-200</v>
       </c>
       <c r="U33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="X33" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,131 +2458,158 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G35" s="3">
         <v>-1100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="H35" s="3">
         <v>-400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="I35" s="3">
         <v>-400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="J35" s="3">
         <v>-100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="K35" s="3">
         <v>300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="L35" s="3">
         <v>-1300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="M35" s="3">
         <v>-900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="N35" s="3">
         <v>-100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="O35" s="3">
         <v>2800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="P35" s="3">
         <v>-22100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="Q35" s="3">
         <v>-3500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="R35" s="3">
         <v>-400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="S35" s="3">
         <v>-5500</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>-200</v>
-      </c>
-      <c r="R35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="S35" s="3">
-        <v>-100</v>
       </c>
       <c r="T35" s="3">
         <v>-200</v>
       </c>
       <c r="U35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="X35" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44681</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44592</v>
+      </c>
+      <c r="F38" s="2">
+        <v>44500</v>
+      </c>
+      <c r="G38" s="2">
         <v>44408</v>
       </c>
-      <c r="E38" s="2">
+      <c r="H38" s="2">
         <v>44316</v>
       </c>
-      <c r="F38" s="2">
+      <c r="I38" s="2">
         <v>44227</v>
       </c>
-      <c r="G38" s="2">
+      <c r="J38" s="2">
         <v>44135</v>
       </c>
-      <c r="H38" s="2">
+      <c r="K38" s="2">
         <v>44043</v>
       </c>
-      <c r="I38" s="2">
+      <c r="L38" s="2">
         <v>43951</v>
       </c>
-      <c r="J38" s="2">
+      <c r="M38" s="2">
         <v>43861</v>
       </c>
-      <c r="K38" s="2">
+      <c r="N38" s="2">
         <v>43769</v>
       </c>
-      <c r="L38" s="2">
+      <c r="O38" s="2">
         <v>43677</v>
       </c>
-      <c r="M38" s="2">
+      <c r="P38" s="2">
         <v>43585</v>
       </c>
-      <c r="N38" s="2">
+      <c r="Q38" s="2">
         <v>43496</v>
       </c>
-      <c r="O38" s="2">
+      <c r="R38" s="2">
         <v>43404</v>
       </c>
-      <c r="P38" s="2">
+      <c r="S38" s="2">
         <v>43312</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="T38" s="2">
         <v>43220</v>
       </c>
-      <c r="R38" s="2">
+      <c r="U38" s="2">
         <v>41759</v>
       </c>
-      <c r="S38" s="2">
+      <c r="V38" s="2">
         <v>41670</v>
       </c>
-      <c r="T38" s="2">
+      <c r="W38" s="2">
         <v>41578</v>
       </c>
-      <c r="U38" s="2">
+      <c r="X38" s="2">
         <v>41486</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2631,11 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,67 +2657,79 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>0</v>
+      </c>
+      <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
+        <v>100</v>
+      </c>
+      <c r="G41" s="3">
         <v>300</v>
       </c>
-      <c r="E41" s="3">
-        <v>0</v>
-      </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
+        <v>0</v>
+      </c>
+      <c r="I41" s="3">
         <v>200</v>
       </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
       <c r="J41" s="3">
         <v>0</v>
       </c>
       <c r="K41" s="3">
+        <v>0</v>
+      </c>
+      <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3">
+        <v>0</v>
+      </c>
+      <c r="N41" s="3">
         <v>100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="O41" s="3">
         <v>300</v>
       </c>
-      <c r="M41" s="3">
-        <v>0</v>
-      </c>
-      <c r="N41" s="3">
-        <v>0</v>
-      </c>
-      <c r="O41" s="3">
-        <v>0</v>
-      </c>
-      <c r="P41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q41" s="3" t="s">
-        <v>4</v>
+      <c r="P41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>0</v>
       </c>
       <c r="R41" s="3">
         <v>0</v>
       </c>
-      <c r="S41" s="3">
-        <v>0</v>
-      </c>
-      <c r="T41" s="3">
-        <v>0</v>
+      <c r="S41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3">
+        <v>0</v>
+      </c>
+      <c r="W41" s="3">
+        <v>0</v>
+      </c>
+      <c r="X41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2518,8 +2787,17 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2577,25 +2855,34 @@
       <c r="U43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
         <v>0</v>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H44" s="3">
-        <v>0</v>
+      <c r="E44" s="3">
+        <v>0</v>
+      </c>
+      <c r="F44" s="3">
+        <v>0</v>
+      </c>
+      <c r="G44" s="3">
+        <v>0</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>4</v>
@@ -2606,11 +2893,11 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-      <c r="L44" s="3">
-        <v>0</v>
-      </c>
-      <c r="M44" s="3">
-        <v>0</v>
+      <c r="L44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N44" s="3">
         <v>0</v>
@@ -2636,8 +2923,17 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2650,8 +2946,8 @@
       <c r="F45" s="3">
         <v>0</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>4</v>
+      <c r="G45" s="3">
+        <v>0</v>
       </c>
       <c r="H45" s="3">
         <v>0</v>
@@ -2659,151 +2955,169 @@
       <c r="I45" s="3">
         <v>0</v>
       </c>
-      <c r="J45" s="3">
-        <v>0</v>
+      <c r="J45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3">
         <v>100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="O45" s="3">
         <v>100</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N45" s="3">
-        <v>0</v>
-      </c>
-      <c r="O45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R45" s="3">
-        <v>0</v>
-      </c>
-      <c r="S45" s="3">
-        <v>0</v>
-      </c>
-      <c r="T45" s="3">
-        <v>0</v>
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>0</v>
+      </c>
+      <c r="E46" s="3">
+        <v>0</v>
+      </c>
+      <c r="F46" s="3">
+        <v>100</v>
+      </c>
+      <c r="G46" s="3">
         <v>300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="H46" s="3">
         <v>100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="I46" s="3">
         <v>200</v>
       </c>
-      <c r="G46" s="3">
-        <v>0</v>
-      </c>
-      <c r="H46" s="3">
-        <v>0</v>
-      </c>
-      <c r="I46" s="3">
-        <v>0</v>
-      </c>
       <c r="J46" s="3">
         <v>0</v>
       </c>
       <c r="K46" s="3">
+        <v>0</v>
+      </c>
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+      <c r="N46" s="3">
         <v>200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="O46" s="3">
         <v>500</v>
       </c>
-      <c r="M46" s="3">
-        <v>0</v>
-      </c>
-      <c r="N46" s="3">
-        <v>0</v>
-      </c>
-      <c r="O46" s="3">
-        <v>0</v>
-      </c>
-      <c r="P46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q46" s="3" t="s">
-        <v>4</v>
+      <c r="P46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="3">
+        <v>0</v>
       </c>
       <c r="R46" s="3">
         <v>0</v>
       </c>
-      <c r="S46" s="3">
-        <v>0</v>
-      </c>
-      <c r="T46" s="3">
-        <v>0</v>
+      <c r="S46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T46" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+      <c r="X46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>4</v>
+      <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
+        <v>0</v>
       </c>
       <c r="I47" s="3">
+        <v>0</v>
+      </c>
+      <c r="J47" s="3">
+        <v>0</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L47" s="3">
         <v>200</v>
       </c>
-      <c r="J47" s="3">
+      <c r="M47" s="3">
         <v>200</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L47" s="3">
-        <v>0</v>
-      </c>
-      <c r="M47" s="3">
-        <v>0</v>
-      </c>
-      <c r="N47" s="3">
-        <v>0</v>
+      <c r="N47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O47" s="3">
+        <v>0</v>
+      </c>
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
         <v>2400</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S47" s="3" t="s">
         <v>4</v>
       </c>
@@ -2813,13 +3127,22 @@
       <c r="U47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3">
-        <v>0</v>
+      <c r="D48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E48" s="3">
         <v>0</v>
@@ -2852,17 +3175,17 @@
         <v>0</v>
       </c>
       <c r="O48" s="3">
+        <v>0</v>
+      </c>
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+      <c r="R48" s="3">
         <v>100</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S48" s="3" t="s">
         <v>4</v>
       </c>
@@ -2872,13 +3195,22 @@
       <c r="U48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3">
-        <v>0</v>
+      <c r="D49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E49" s="3">
         <v>0</v>
@@ -2913,26 +3245,35 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q49" s="3" t="s">
-        <v>4</v>
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>0</v>
       </c>
       <c r="R49" s="3">
-        <v>200</v>
-      </c>
-      <c r="S49" s="3">
-        <v>200</v>
-      </c>
-      <c r="T49" s="3">
-        <v>200</v>
+        <v>0</v>
+      </c>
+      <c r="S49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U49" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>200</v>
+      </c>
+      <c r="W49" s="3">
+        <v>200</v>
+      </c>
+      <c r="X49" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3331,17 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,8 +3399,17 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3060,14 +3419,14 @@
       <c r="E52" s="3">
         <v>200</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>4</v>
+      <c r="F52" s="3">
+        <v>200</v>
+      </c>
+      <c r="G52" s="3">
+        <v>200</v>
+      </c>
+      <c r="H52" s="3">
+        <v>200</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>4</v>
@@ -3075,18 +3434,18 @@
       <c r="J52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K52" s="3">
+      <c r="K52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N52" s="3">
         <v>200</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O52" s="3" t="s">
         <v>4</v>
       </c>
@@ -3096,20 +3455,29 @@
       <c r="Q52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R52" s="3">
-        <v>0</v>
-      </c>
-      <c r="S52" s="3">
-        <v>0</v>
-      </c>
-      <c r="T52" s="3">
-        <v>0</v>
+      <c r="R52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,67 +3535,85 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="E54" s="3">
         <v>200</v>
       </c>
       <c r="F54" s="3">
+        <v>300</v>
+      </c>
+      <c r="G54" s="3">
+        <v>500</v>
+      </c>
+      <c r="H54" s="3">
         <v>200</v>
-      </c>
-      <c r="G54" s="3">
-        <v>0</v>
-      </c>
-      <c r="H54" s="3">
-        <v>100</v>
       </c>
       <c r="I54" s="3">
         <v>200</v>
       </c>
       <c r="J54" s="3">
+        <v>0</v>
+      </c>
+      <c r="K54" s="3">
+        <v>100</v>
+      </c>
+      <c r="L54" s="3">
         <v>200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
+        <v>200</v>
+      </c>
+      <c r="N54" s="3">
         <v>400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="O54" s="3">
         <v>500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="P54" s="3">
         <v>100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="Q54" s="3">
         <v>100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="R54" s="3">
         <v>2500</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R54" s="3">
-        <v>200</v>
-      </c>
-      <c r="S54" s="3">
-        <v>200</v>
-      </c>
-      <c r="T54" s="3">
-        <v>200</v>
+      <c r="S54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T54" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U54" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3">
+        <v>200</v>
+      </c>
+      <c r="W54" s="3">
+        <v>200</v>
+      </c>
+      <c r="X54" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3635,11 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+      <c r="W55" s="3"/>
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,56 +3661,59 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E57" s="3">
+        <v>800</v>
+      </c>
+      <c r="F57" s="3">
         <v>500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
+        <v>500</v>
+      </c>
+      <c r="H57" s="3">
         <v>700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="I57" s="3">
         <v>600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="J57" s="3">
         <v>600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="K57" s="3">
         <v>600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="L57" s="3">
         <v>500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="M57" s="3">
         <v>500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="N57" s="3">
         <v>400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="O57" s="3">
         <v>200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="P57" s="3">
         <v>200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="Q57" s="3">
         <v>200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="R57" s="3">
         <v>100</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S57" s="3" t="s">
         <v>4</v>
       </c>
@@ -3331,8 +3723,17 @@
       <c r="U57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3340,176 +3741,203 @@
         <v>800</v>
       </c>
       <c r="E58" s="3">
+        <v>800</v>
+      </c>
+      <c r="F58" s="3">
+        <v>800</v>
+      </c>
+      <c r="G58" s="3">
+        <v>800</v>
+      </c>
+      <c r="H58" s="3">
         <v>600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="I58" s="3">
         <v>500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="J58" s="3">
         <v>500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="K58" s="3">
         <v>400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="L58" s="3">
         <v>400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="M58" s="3">
         <v>400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="N58" s="3">
         <v>300</v>
-      </c>
-      <c r="L58" s="3">
-        <v>200</v>
-      </c>
-      <c r="M58" s="3">
-        <v>200</v>
-      </c>
-      <c r="N58" s="3">
-        <v>200</v>
       </c>
       <c r="O58" s="3">
         <v>200</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q58" s="3" t="s">
-        <v>4</v>
+      <c r="P58" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>200</v>
       </c>
       <c r="R58" s="3">
-        <v>100</v>
-      </c>
-      <c r="S58" s="3">
-        <v>100</v>
-      </c>
-      <c r="T58" s="3">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="S58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>100</v>
+      </c>
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+      <c r="X58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F59" s="3">
+        <v>1900</v>
+      </c>
+      <c r="G59" s="3">
         <v>1600</v>
-      </c>
-      <c r="E59" s="3">
-        <v>800</v>
-      </c>
-      <c r="F59" s="3">
-        <v>800</v>
-      </c>
-      <c r="G59" s="3">
-        <v>800</v>
       </c>
       <c r="H59" s="3">
         <v>800</v>
       </c>
       <c r="I59" s="3">
+        <v>800</v>
+      </c>
+      <c r="J59" s="3">
+        <v>800</v>
+      </c>
+      <c r="K59" s="3">
+        <v>800</v>
+      </c>
+      <c r="L59" s="3">
         <v>1500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="M59" s="3">
         <v>900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="N59" s="3">
         <v>600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="O59" s="3">
         <v>900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="P59" s="3">
         <v>700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="Q59" s="3">
         <v>1300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="R59" s="3">
         <v>400</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U59" s="3">
         <v>200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="V59" s="3">
         <v>200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="W59" s="3">
         <v>200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="X59" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F60" s="3">
+        <v>3100</v>
+      </c>
+      <c r="G60" s="3">
         <v>2900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="H60" s="3">
         <v>2100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="I60" s="3">
         <v>1900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="J60" s="3">
         <v>1900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="K60" s="3">
         <v>1800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="L60" s="3">
         <v>2400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="M60" s="3">
         <v>1800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="N60" s="3">
         <v>1300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="O60" s="3">
         <v>1300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="P60" s="3">
         <v>1000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="Q60" s="3">
         <v>1600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="R60" s="3">
         <v>700</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U60" s="3">
         <v>300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="V60" s="3">
         <v>300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="W60" s="3">
         <v>200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="X60" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3562,27 +3990,36 @@
         <v>0</v>
       </c>
       <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+      <c r="W61" s="3">
         <v>100</v>
       </c>
-      <c r="U61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
         <v>100</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>4</v>
+      <c r="E62" s="3">
+        <v>100</v>
+      </c>
+      <c r="F62" s="3">
+        <v>100</v>
+      </c>
+      <c r="G62" s="3">
+        <v>100</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>4</v>
@@ -3593,14 +4030,14 @@
       <c r="J62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
-      </c>
-      <c r="L62" s="3">
-        <v>0</v>
-      </c>
-      <c r="M62" s="3">
-        <v>0</v>
+      <c r="K62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N62" s="3">
         <v>0</v>
@@ -3626,8 +4063,17 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +4131,17 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +4199,17 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,67 +4267,85 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F66" s="3">
+        <v>3200</v>
+      </c>
+      <c r="G66" s="3">
         <v>3000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="H66" s="3">
         <v>2100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="I66" s="3">
         <v>1900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="J66" s="3">
         <v>1900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="K66" s="3">
         <v>1800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="L66" s="3">
         <v>2400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="M66" s="3">
         <v>1800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="N66" s="3">
         <v>1300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="O66" s="3">
         <v>1300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="P66" s="3">
         <v>1000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="Q66" s="3">
         <v>1600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="R66" s="3">
         <v>700</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U66" s="3">
         <v>300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="V66" s="3">
         <v>300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="W66" s="3">
         <v>200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="X66" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4367,11 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+      <c r="W67" s="3"/>
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4429,17 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4497,17 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4062,8 +4565,17 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,67 +4633,85 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-38400</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-37800</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-37000</v>
+      </c>
+      <c r="G72" s="3">
         <v>-36500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="H72" s="3">
         <v>-35400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="I72" s="3">
         <v>-35100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="J72" s="3">
         <v>-34700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="K72" s="3">
         <v>-34600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="L72" s="3">
         <v>-35000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="M72" s="3">
         <v>-33700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="N72" s="3">
         <v>-32800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="O72" s="3">
         <v>-32700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="P72" s="3">
         <v>-35500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="Q72" s="3">
         <v>-13400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="R72" s="3">
         <v>-9800</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U72" s="3">
         <v>-2000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="V72" s="3">
         <v>-1900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="W72" s="3">
         <v>-1700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="X72" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4769,17 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4837,17 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,67 +4905,85 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="F76" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="G76" s="3">
         <v>-2500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="H76" s="3">
         <v>-1900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="I76" s="3">
         <v>-1700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="J76" s="3">
         <v>-1800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="K76" s="3">
         <v>-1700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="L76" s="3">
         <v>-2200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="M76" s="3">
         <v>-1600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="N76" s="3">
         <v>-900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="O76" s="3">
         <v>-700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="P76" s="3">
         <v>-900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="Q76" s="3">
         <v>-1500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="R76" s="3">
         <v>1800</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U76" s="3">
         <v>-100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="V76" s="3">
         <v>-100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="W76" s="3">
         <v>-100</v>
       </c>
-      <c r="U76" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="X76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,131 +5041,158 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44681</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44592</v>
+      </c>
+      <c r="F80" s="2">
+        <v>44500</v>
+      </c>
+      <c r="G80" s="2">
         <v>44408</v>
       </c>
-      <c r="E80" s="2">
+      <c r="H80" s="2">
         <v>44316</v>
       </c>
-      <c r="F80" s="2">
+      <c r="I80" s="2">
         <v>44227</v>
       </c>
-      <c r="G80" s="2">
+      <c r="J80" s="2">
         <v>44135</v>
       </c>
-      <c r="H80" s="2">
+      <c r="K80" s="2">
         <v>44043</v>
       </c>
-      <c r="I80" s="2">
+      <c r="L80" s="2">
         <v>43951</v>
       </c>
-      <c r="J80" s="2">
+      <c r="M80" s="2">
         <v>43861</v>
       </c>
-      <c r="K80" s="2">
+      <c r="N80" s="2">
         <v>43769</v>
       </c>
-      <c r="L80" s="2">
+      <c r="O80" s="2">
         <v>43677</v>
       </c>
-      <c r="M80" s="2">
+      <c r="P80" s="2">
         <v>43585</v>
       </c>
-      <c r="N80" s="2">
+      <c r="Q80" s="2">
         <v>43496</v>
       </c>
-      <c r="O80" s="2">
+      <c r="R80" s="2">
         <v>43404</v>
       </c>
-      <c r="P80" s="2">
+      <c r="S80" s="2">
         <v>43312</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="T80" s="2">
         <v>43220</v>
       </c>
-      <c r="R80" s="2">
+      <c r="U80" s="2">
         <v>41759</v>
       </c>
-      <c r="S80" s="2">
+      <c r="V80" s="2">
         <v>41670</v>
       </c>
-      <c r="T80" s="2">
+      <c r="W80" s="2">
         <v>41578</v>
       </c>
-      <c r="U80" s="2">
+      <c r="X80" s="2">
         <v>41486</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G81" s="3">
         <v>-1100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="H81" s="3">
         <v>-400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="I81" s="3">
         <v>-400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="J81" s="3">
         <v>-100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="K81" s="3">
         <v>300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="L81" s="3">
         <v>-1300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="M81" s="3">
         <v>-900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="N81" s="3">
         <v>-100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="O81" s="3">
         <v>2800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="P81" s="3">
         <v>-22100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="Q81" s="3">
         <v>-3500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="R81" s="3">
         <v>-400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="S81" s="3">
         <v>-5500</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>-200</v>
-      </c>
-      <c r="R81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="S81" s="3">
-        <v>-100</v>
       </c>
       <c r="T81" s="3">
         <v>-200</v>
       </c>
       <c r="U81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="X81" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,8 +5214,11 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+      <c r="W82" s="3"/>
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4668,20 +5264,29 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T83" s="3" t="s">
-        <v>4</v>
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+      <c r="T83" s="3">
+        <v>0</v>
       </c>
       <c r="U83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +5344,17 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5412,17 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5480,17 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5548,17 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,13 +5616,22 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E89" s="3">
         <v>-100</v>
@@ -4990,31 +5640,31 @@
         <v>-200</v>
       </c>
       <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
         <v>-100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-200</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-100</v>
       </c>
       <c r="J89" s="3">
         <v>-100</v>
       </c>
       <c r="K89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L89" s="3">
         <v>-100</v>
       </c>
-      <c r="L89" s="3">
-        <v>-200</v>
-      </c>
       <c r="M89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N89" s="3">
         <v>-100</v>
       </c>
       <c r="O89" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="P89" s="3">
         <v>0</v>
@@ -5029,13 +5679,22 @@
         <v>0</v>
       </c>
       <c r="T89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+      <c r="W89" s="3">
+        <v>0</v>
+      </c>
+      <c r="X89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,8 +5716,11 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+      <c r="W90" s="3"/>
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5104,20 +5766,29 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T91" s="3" t="s">
-        <v>4</v>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
+        <v>0</v>
       </c>
       <c r="U91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5846,17 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,8 +5914,17 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5243,35 +5932,35 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>-200</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>200</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>-200</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
         <v>0</v>
       </c>
@@ -5293,8 +5982,17 @@
       <c r="U94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,8 +6014,11 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+      <c r="W95" s="3"/>
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5375,8 +6076,17 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +6144,17 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +6212,17 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,53 +6280,62 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>100</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="H100" s="3">
         <v>200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="I100" s="3">
         <v>300</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="L100" s="3">
         <v>100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="M100" s="3">
         <v>100</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>500</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>100</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
         <v>0</v>
       </c>
@@ -5611,8 +6348,17 @@
       <c r="U100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5670,47 +6416,56 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="E102" s="3">
         <v>-100</v>
       </c>
       <c r="F102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G102" s="3">
+        <v>300</v>
+      </c>
+      <c r="H102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I102" s="3">
         <v>100</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
         <v>0</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>-300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="O102" s="3">
         <v>300</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
       <c r="P102" s="3">
         <v>0</v>
       </c>
@@ -5727,6 +6482,15 @@
         <v>0</v>
       </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/THCT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/THCT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="92">
   <si>
     <t>THCT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,103 +665,111 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44865</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44773</v>
+      </c>
+      <c r="F7" s="2">
         <v>44681</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44592</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44500</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44408</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44316</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44227</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44135</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44043</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43951</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43861</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43769</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43677</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43585</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43496</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43404</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43312</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43220</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>41759</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>41670</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>41578</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>41486</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -828,8 +836,14 @@
       <c r="X8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -896,8 +910,14 @@
       <c r="X9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -964,8 +984,14 @@
       <c r="X10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -990,8 +1016,10 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1058,8 +1086,14 @@
       <c r="X12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1126,13 +1160,19 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>4</v>
+      <c r="D14" s="3">
+        <v>0</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>4</v>
@@ -1140,53 +1180,53 @@
       <c r="F14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
+      <c r="G14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>200</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>-7700</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>4900</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U14" s="3">
         <v>5200</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
-      <c r="U14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V14" s="3" t="s">
-        <v>4</v>
+      <c r="V14" s="3">
+        <v>0</v>
       </c>
       <c r="W14" s="3" t="s">
         <v>4</v>
@@ -1194,8 +1234,14 @@
       <c r="X14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1211,11 +1257,11 @@
       <c r="G15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0</v>
+      <c r="H15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J15" s="3">
         <v>0</v>
@@ -1250,11 +1296,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-      <c r="U15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V15" s="3" t="s">
-        <v>4</v>
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
       </c>
       <c r="W15" s="3" t="s">
         <v>4</v>
@@ -1262,8 +1308,14 @@
       <c r="X15" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1285,8 +1337,10 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1294,13 +1348,13 @@
         <v>100</v>
       </c>
       <c r="E17" s="3">
+        <v>500</v>
+      </c>
+      <c r="F17" s="3">
+        <v>100</v>
+      </c>
+      <c r="G17" s="3">
         <v>900</v>
-      </c>
-      <c r="F17" s="3">
-        <v>200</v>
-      </c>
-      <c r="G17" s="3">
-        <v>300</v>
       </c>
       <c r="H17" s="3">
         <v>200</v>
@@ -1309,52 +1363,58 @@
         <v>300</v>
       </c>
       <c r="J17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K17" s="3">
         <v>300</v>
       </c>
       <c r="L17" s="3">
+        <v>100</v>
+      </c>
+      <c r="M17" s="3">
+        <v>300</v>
+      </c>
+      <c r="N17" s="3">
         <v>700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>-2800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>18700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>2700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>5500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1362,13 +1422,13 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G18" s="3">
         <v>-900</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-300</v>
       </c>
       <c r="H18" s="3">
         <v>-200</v>
@@ -1377,52 +1437,58 @@
         <v>-300</v>
       </c>
       <c r="J18" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="K18" s="3">
         <v>-300</v>
       </c>
       <c r="L18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N18" s="3">
         <v>-700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>2800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-18700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-2700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-5500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>-200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1447,8 +1513,10 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1456,50 +1524,50 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>900</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-3200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-800</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
       <c r="T20" s="3">
         <v>0</v>
       </c>
@@ -1513,10 +1581,16 @@
         <v>0</v>
       </c>
       <c r="X20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1524,87 +1598,93 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>400</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="G21" s="3">
         <v>-700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-300</v>
       </c>
-      <c r="J21" s="3">
-        <v>0</v>
-      </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
+        <v>0</v>
+      </c>
+      <c r="M21" s="3">
         <v>500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-1100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-700</v>
       </c>
-      <c r="N21" s="3">
-        <v>0</v>
-      </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="3">
         <v>2900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-21900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-3500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-5500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-200</v>
       </c>
-      <c r="U21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W21" s="3" t="s">
         <v>4</v>
       </c>
       <c r="X21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
         <v>0</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
+      <c r="E22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
       </c>
       <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
         <v>300</v>
-      </c>
-      <c r="H22" s="3">
-        <v>100</v>
-      </c>
-      <c r="I22" s="3">
-        <v>100</v>
       </c>
       <c r="J22" s="3">
         <v>100</v>
@@ -1625,14 +1705,14 @@
         <v>100</v>
       </c>
       <c r="P22" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>100</v>
+      </c>
+      <c r="R22" s="3">
         <v>200</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
-      </c>
-      <c r="R22" s="3">
-        <v>0</v>
-      </c>
       <c r="S22" s="3">
         <v>0</v>
       </c>
@@ -1651,76 +1731,88 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>4</v>
+      <c r="D23" s="3">
+        <v>-2100</v>
       </c>
       <c r="E23" s="3">
+        <v>400</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="G23" s="3">
         <v>-800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-1100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-1300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>2800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-22100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-3500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-5500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1787,8 +1879,14 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1855,144 +1953,162 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>4</v>
+      <c r="D26" s="3">
+        <v>-2100</v>
       </c>
       <c r="E26" s="3">
+        <v>400</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="G26" s="3">
         <v>-800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-1100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-1300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>2800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-22100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-3500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-5500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>4</v>
+      <c r="D27" s="3">
+        <v>-2100</v>
       </c>
       <c r="E27" s="3">
+        <v>400</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="G27" s="3">
         <v>-800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-1100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-1300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>2800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-22100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-3500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-5500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2059,8 +2175,14 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2127,8 +2249,14 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2195,8 +2323,14 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2263,8 +2397,14 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2272,50 +2412,50 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F32" s="3">
+        <v>500</v>
+      </c>
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>3200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>800</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
       <c r="T32" s="3">
         <v>0</v>
       </c>
@@ -2329,78 +2469,90 @@
         <v>0</v>
       </c>
       <c r="X32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>4</v>
+      <c r="D33" s="3">
+        <v>-2100</v>
       </c>
       <c r="E33" s="3">
+        <v>400</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="G33" s="3">
         <v>-800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-1100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-1300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>2800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-22100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-3500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-5500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2467,149 +2619,167 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>4</v>
+      <c r="D35" s="3">
+        <v>-2100</v>
       </c>
       <c r="E35" s="3">
+        <v>400</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="G35" s="3">
         <v>-800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-1100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-1300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>2800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-22100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-3500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-5500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44865</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44773</v>
+      </c>
+      <c r="F38" s="2">
         <v>44681</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44592</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44500</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44408</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44316</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44227</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44135</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44043</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43951</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43861</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43769</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43677</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43585</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43496</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43404</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43312</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43220</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>41759</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>41670</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>41578</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>41486</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2634,8 +2804,10 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2660,8 +2832,10 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2672,23 +2846,23 @@
         <v>0</v>
       </c>
       <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
+        <v>0</v>
+      </c>
+      <c r="H41" s="3">
         <v>100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>300</v>
       </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
+        <v>0</v>
+      </c>
+      <c r="K41" s="3">
         <v>200</v>
       </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
       <c r="L41" s="3">
         <v>0</v>
       </c>
@@ -2696,31 +2870,31 @@
         <v>0</v>
       </c>
       <c r="N41" s="3">
+        <v>0</v>
+      </c>
+      <c r="O41" s="3">
+        <v>0</v>
+      </c>
+      <c r="P41" s="3">
         <v>100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>300</v>
       </c>
-      <c r="P41" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="3">
-        <v>0</v>
-      </c>
       <c r="R41" s="3">
         <v>0</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U41" s="3">
-        <v>0</v>
-      </c>
-      <c r="V41" s="3">
-        <v>0</v>
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+      <c r="T41" s="3">
+        <v>0</v>
+      </c>
+      <c r="U41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W41" s="3">
         <v>0</v>
@@ -2728,8 +2902,14 @@
       <c r="X41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2796,8 +2976,14 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2864,8 +3050,14 @@
       <c r="X43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2881,29 +3073,29 @@
       <c r="G44" s="3">
         <v>0</v>
       </c>
-      <c r="H44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>4</v>
+      <c r="H44" s="3">
+        <v>0</v>
+      </c>
+      <c r="I44" s="3">
+        <v>0</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K44" s="3">
-        <v>0</v>
+      <c r="K44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N44" s="3">
-        <v>0</v>
-      </c>
-      <c r="O44" s="3">
-        <v>0</v>
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P44" s="3">
         <v>0</v>
@@ -2932,8 +3124,14 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2955,44 +3153,44 @@
       <c r="I45" s="3">
         <v>0</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>4</v>
+      <c r="J45" s="3">
+        <v>0</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
       </c>
-      <c r="L45" s="3">
-        <v>0</v>
+      <c r="L45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M45" s="3">
         <v>0</v>
       </c>
       <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3">
         <v>100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>100</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>0</v>
-      </c>
       <c r="R45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S45" s="3" t="s">
-        <v>4</v>
+      <c r="S45" s="3">
+        <v>0</v>
       </c>
       <c r="T45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U45" s="3">
-        <v>0</v>
-      </c>
-      <c r="V45" s="3">
-        <v>0</v>
+      <c r="U45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W45" s="3">
         <v>0</v>
@@ -3000,8 +3198,14 @@
       <c r="X45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3012,23 +3216,23 @@
         <v>0</v>
       </c>
       <c r="F46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G46" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="H46" s="3">
         <v>100</v>
       </c>
       <c r="I46" s="3">
+        <v>300</v>
+      </c>
+      <c r="J46" s="3">
+        <v>100</v>
+      </c>
+      <c r="K46" s="3">
         <v>200</v>
       </c>
-      <c r="J46" s="3">
-        <v>0</v>
-      </c>
-      <c r="K46" s="3">
-        <v>0</v>
-      </c>
       <c r="L46" s="3">
         <v>0</v>
       </c>
@@ -3036,31 +3240,31 @@
         <v>0</v>
       </c>
       <c r="N46" s="3">
+        <v>0</v>
+      </c>
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+      <c r="P46" s="3">
         <v>200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>500</v>
       </c>
-      <c r="P46" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q46" s="3">
-        <v>0</v>
-      </c>
       <c r="R46" s="3">
         <v>0</v>
       </c>
-      <c r="S46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U46" s="3">
-        <v>0</v>
-      </c>
-      <c r="V46" s="3">
-        <v>0</v>
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+      <c r="U46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V46" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W46" s="3">
         <v>0</v>
@@ -3068,8 +3272,14 @@
       <c r="X46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3094,36 +3304,36 @@
       <c r="J47" s="3">
         <v>0</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>4</v>
+      <c r="K47" s="3">
+        <v>0</v>
       </c>
       <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N47" s="3">
         <v>200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>200</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O47" s="3">
-        <v>0</v>
-      </c>
-      <c r="P47" s="3">
-        <v>0</v>
+      <c r="P47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q47" s="3">
         <v>0</v>
       </c>
       <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+      <c r="T47" s="3">
         <v>2400</v>
       </c>
-      <c r="S47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U47" s="3" t="s">
         <v>4</v>
       </c>
@@ -3136,16 +3346,22 @@
       <c r="X47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E48" s="3">
-        <v>0</v>
+      <c r="E48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F48" s="3">
         <v>0</v>
@@ -3184,14 +3400,14 @@
         <v>0</v>
       </c>
       <c r="R48" s="3">
+        <v>0</v>
+      </c>
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+      <c r="T48" s="3">
         <v>100</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U48" s="3" t="s">
         <v>4</v>
       </c>
@@ -3204,13 +3420,19 @@
       <c r="X48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>4</v>
+      <c r="D49" s="3">
+        <v>0</v>
       </c>
       <c r="E49" s="3">
         <v>0</v>
@@ -3254,17 +3476,17 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-      <c r="S49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U49" s="3">
-        <v>200</v>
-      </c>
-      <c r="V49" s="3">
-        <v>200</v>
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+      <c r="U49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W49" s="3">
         <v>200</v>
@@ -3272,8 +3494,14 @@
       <c r="X49" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z49" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3340,8 +3568,14 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3408,13 +3642,19 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E52" s="3">
         <v>200</v>
@@ -3428,11 +3668,11 @@
       <c r="H52" s="3">
         <v>200</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>4</v>
+      <c r="I52" s="3">
+        <v>200</v>
+      </c>
+      <c r="J52" s="3">
+        <v>200</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>4</v>
@@ -3443,15 +3683,15 @@
       <c r="M52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N52" s="3">
+      <c r="N52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P52" s="3">
         <v>200</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q52" s="3" t="s">
         <v>4</v>
       </c>
@@ -3464,11 +3704,11 @@
       <c r="T52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U52" s="3">
-        <v>0</v>
-      </c>
-      <c r="V52" s="3">
-        <v>0</v>
+      <c r="U52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W52" s="3">
         <v>0</v>
@@ -3476,8 +3716,14 @@
       <c r="X52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3544,67 +3790,73 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E54" s="3">
         <v>200</v>
       </c>
       <c r="F54" s="3">
+        <v>200</v>
+      </c>
+      <c r="G54" s="3">
+        <v>200</v>
+      </c>
+      <c r="H54" s="3">
         <v>300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>200</v>
       </c>
-      <c r="J54" s="3">
-        <v>0</v>
-      </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
+        <v>0</v>
+      </c>
+      <c r="M54" s="3">
         <v>100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>2500</v>
       </c>
-      <c r="S54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U54" s="3">
-        <v>200</v>
-      </c>
-      <c r="V54" s="3">
-        <v>200</v>
+      <c r="U54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V54" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W54" s="3">
         <v>200</v>
@@ -3612,8 +3864,14 @@
       <c r="X54" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y54" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z54" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3638,8 +3896,10 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3664,62 +3924,64 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F57" s="3">
         <v>1500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>700</v>
-      </c>
-      <c r="I57" s="3">
-        <v>600</v>
-      </c>
-      <c r="J57" s="3">
-        <v>600</v>
       </c>
       <c r="K57" s="3">
         <v>600</v>
       </c>
       <c r="L57" s="3">
+        <v>600</v>
+      </c>
+      <c r="M57" s="3">
+        <v>600</v>
+      </c>
+      <c r="N57" s="3">
         <v>500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>400</v>
-      </c>
-      <c r="O57" s="3">
-        <v>200</v>
-      </c>
-      <c r="P57" s="3">
-        <v>200</v>
       </c>
       <c r="Q57" s="3">
         <v>200</v>
       </c>
       <c r="R57" s="3">
+        <v>200</v>
+      </c>
+      <c r="S57" s="3">
+        <v>200</v>
+      </c>
+      <c r="T57" s="3">
         <v>100</v>
       </c>
-      <c r="S57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U57" s="3" t="s">
         <v>4</v>
       </c>
@@ -3732,13 +3994,19 @@
       <c r="X57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="E58" s="3">
         <v>800</v>
@@ -3750,31 +4018,31 @@
         <v>800</v>
       </c>
       <c r="H58" s="3">
+        <v>800</v>
+      </c>
+      <c r="I58" s="3">
+        <v>800</v>
+      </c>
+      <c r="J58" s="3">
         <v>600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>500</v>
-      </c>
-      <c r="K58" s="3">
-        <v>400</v>
-      </c>
-      <c r="L58" s="3">
-        <v>400</v>
       </c>
       <c r="M58" s="3">
         <v>400</v>
       </c>
       <c r="N58" s="3">
+        <v>400</v>
+      </c>
+      <c r="O58" s="3">
+        <v>400</v>
+      </c>
+      <c r="P58" s="3">
         <v>300</v>
-      </c>
-      <c r="O58" s="3">
-        <v>200</v>
-      </c>
-      <c r="P58" s="3">
-        <v>200</v>
       </c>
       <c r="Q58" s="3">
         <v>200</v>
@@ -3782,46 +4050,52 @@
       <c r="R58" s="3">
         <v>200</v>
       </c>
-      <c r="S58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U58" s="3">
+      <c r="S58" s="3">
+        <v>200</v>
+      </c>
+      <c r="T58" s="3">
+        <v>200</v>
+      </c>
+      <c r="U58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W58" s="3">
         <v>100</v>
-      </c>
-      <c r="V58" s="3">
-        <v>100</v>
-      </c>
-      <c r="W58" s="3">
-        <v>0</v>
       </c>
       <c r="X58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E59" s="3">
+        <v>800</v>
+      </c>
+      <c r="F59" s="3">
         <v>1700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>1800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>1900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>1600</v>
-      </c>
-      <c r="H59" s="3">
-        <v>800</v>
-      </c>
-      <c r="I59" s="3">
-        <v>800</v>
       </c>
       <c r="J59" s="3">
         <v>800</v>
@@ -3830,114 +4104,126 @@
         <v>800</v>
       </c>
       <c r="L59" s="3">
+        <v>800</v>
+      </c>
+      <c r="M59" s="3">
+        <v>800</v>
+      </c>
+      <c r="N59" s="3">
         <v>1500</v>
-      </c>
-      <c r="M59" s="3">
-        <v>900</v>
-      </c>
-      <c r="N59" s="3">
-        <v>600</v>
       </c>
       <c r="O59" s="3">
         <v>900</v>
       </c>
       <c r="P59" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q59" s="3">
+        <v>900</v>
+      </c>
+      <c r="R59" s="3">
         <v>700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>1300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>400</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U59" s="3">
-        <v>200</v>
-      </c>
-      <c r="V59" s="3">
-        <v>200</v>
+      <c r="U59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W59" s="3">
         <v>200</v>
       </c>
       <c r="X59" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y59" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z59" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E60" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F60" s="3">
         <v>4000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>3300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>3100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>2900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>2100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>1900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1900</v>
-      </c>
-      <c r="K60" s="3">
-        <v>1800</v>
-      </c>
-      <c r="L60" s="3">
-        <v>2400</v>
       </c>
       <c r="M60" s="3">
         <v>1800</v>
       </c>
       <c r="N60" s="3">
+        <v>2400</v>
+      </c>
+      <c r="O60" s="3">
+        <v>1800</v>
+      </c>
+      <c r="P60" s="3">
         <v>1300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>1300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>1000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>1600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>700</v>
       </c>
-      <c r="S60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U60" s="3">
+      <c r="U60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W60" s="3">
         <v>300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>200</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3999,13 +4285,19 @@
         <v>0</v>
       </c>
       <c r="W61" s="3">
+        <v>0</v>
+      </c>
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="3">
         <v>100</v>
       </c>
-      <c r="X61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4021,11 +4313,11 @@
       <c r="G62" s="3">
         <v>100</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>4</v>
+      <c r="H62" s="3">
+        <v>100</v>
+      </c>
+      <c r="I62" s="3">
+        <v>100</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>4</v>
@@ -4039,11 +4331,11 @@
       <c r="M62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N62" s="3">
-        <v>0</v>
-      </c>
-      <c r="O62" s="3">
-        <v>0</v>
+      <c r="N62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P62" s="3">
         <v>0</v>
@@ -4072,8 +4364,14 @@
       <c r="X62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4140,8 +4438,14 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4208,8 +4512,14 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4276,76 +4586,88 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4000</v>
+        <v>5300</v>
       </c>
       <c r="E66" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F66" s="3">
+        <v>4100</v>
+      </c>
+      <c r="G66" s="3">
         <v>3400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>3200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>3000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>2100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>1900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1900</v>
-      </c>
-      <c r="K66" s="3">
-        <v>1800</v>
-      </c>
-      <c r="L66" s="3">
-        <v>2400</v>
       </c>
       <c r="M66" s="3">
         <v>1800</v>
       </c>
       <c r="N66" s="3">
+        <v>2400</v>
+      </c>
+      <c r="O66" s="3">
+        <v>1800</v>
+      </c>
+      <c r="P66" s="3">
         <v>1300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>1000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>1600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>700</v>
       </c>
-      <c r="S66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U66" s="3">
+      <c r="U66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W66" s="3">
         <v>300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4370,8 +4692,10 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4438,8 +4762,14 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4506,8 +4836,14 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4574,8 +4910,14 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4642,76 +4984,88 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-40200</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-38000</v>
+      </c>
+      <c r="F72" s="3">
         <v>-38400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-37800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-37000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-36500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-35400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-35100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-34700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-34600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-35000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-33700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-32800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-32700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-35500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-13400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-9800</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U72" s="3">
+      <c r="U72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W72" s="3">
         <v>-2000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-1900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-1700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4778,8 +5132,14 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4846,8 +5206,14 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4914,76 +5280,88 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="F76" s="3">
         <v>-3900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-3200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-2900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-2500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-1900</v>
-      </c>
-      <c r="I76" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="J76" s="3">
-        <v>-1800</v>
       </c>
       <c r="K76" s="3">
         <v>-1700</v>
       </c>
       <c r="L76" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="M76" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="N76" s="3">
         <v>-2200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-1600</v>
-      </c>
-      <c r="N76" s="3">
-        <v>-900</v>
-      </c>
-      <c r="O76" s="3">
-        <v>-700</v>
       </c>
       <c r="P76" s="3">
         <v>-900</v>
       </c>
       <c r="Q76" s="3">
+        <v>-700</v>
+      </c>
+      <c r="R76" s="3">
+        <v>-900</v>
+      </c>
+      <c r="S76" s="3">
         <v>-1500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>1800</v>
       </c>
-      <c r="S76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U76" s="3">
-        <v>-100</v>
-      </c>
-      <c r="V76" s="3">
-        <v>-100</v>
+      <c r="U76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V76" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W76" s="3">
         <v>-100</v>
       </c>
       <c r="X76" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="Y76" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5050,149 +5428,167 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44865</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44773</v>
+      </c>
+      <c r="F80" s="2">
         <v>44681</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44592</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44500</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44408</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44316</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44227</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44135</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44043</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43951</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43861</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43769</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43677</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43585</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43496</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43404</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43312</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43220</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>41759</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>41670</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>41578</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>41486</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>4</v>
+      <c r="D81" s="3">
+        <v>-2100</v>
       </c>
       <c r="E81" s="3">
+        <v>400</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="G81" s="3">
         <v>-800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-1100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-1300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>2800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-22100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-3500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-5500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5217,8 +5613,10 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5273,11 +5671,11 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-      <c r="U83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V83" s="3" t="s">
-        <v>4</v>
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+      <c r="V83" s="3">
+        <v>0</v>
       </c>
       <c r="W83" s="3" t="s">
         <v>4</v>
@@ -5285,8 +5683,14 @@
       <c r="X83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5353,8 +5757,14 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5421,8 +5831,14 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5489,8 +5905,14 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5557,8 +5979,14 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5625,28 +6053,34 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
         <v>-100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-200</v>
       </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
-      <c r="H89" s="3">
-        <v>-100</v>
-      </c>
       <c r="I89" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="J89" s="3">
         <v>-100</v>
@@ -5658,43 +6092,49 @@
         <v>-100</v>
       </c>
       <c r="M89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="N89" s="3">
         <v>-100</v>
       </c>
       <c r="O89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-200</v>
       </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
         <v>-100</v>
       </c>
-      <c r="R89" s="3">
-        <v>0</v>
-      </c>
-      <c r="S89" s="3">
-        <v>0</v>
-      </c>
       <c r="T89" s="3">
+        <v>0</v>
+      </c>
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+      <c r="V89" s="3">
         <v>-100</v>
       </c>
-      <c r="U89" s="3">
-        <v>0</v>
-      </c>
-      <c r="V89" s="3">
-        <v>0</v>
-      </c>
       <c r="W89" s="3">
         <v>0</v>
       </c>
       <c r="X89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5719,8 +6159,10 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5775,11 +6217,11 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-      <c r="U91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V91" s="3" t="s">
-        <v>4</v>
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
+        <v>0</v>
       </c>
       <c r="W91" s="3" t="s">
         <v>4</v>
@@ -5787,8 +6229,14 @@
       <c r="X91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5855,8 +6303,14 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5923,8 +6377,14 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5941,32 +6401,32 @@
         <v>0</v>
       </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>-200</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>200</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>-200</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
       <c r="Q94" s="3">
         <v>0</v>
       </c>
@@ -5991,8 +6451,14 @@
       <c r="X94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6017,8 +6483,10 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6085,8 +6553,14 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6153,8 +6627,14 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6221,8 +6701,14 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6289,59 +6775,65 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>100</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="H100" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="I100" s="3">
         <v>300</v>
       </c>
       <c r="J100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K100" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="L100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M100" s="3">
         <v>100</v>
       </c>
       <c r="N100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O100" s="3">
+        <v>100</v>
+      </c>
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>500</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>100</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
       <c r="T100" s="3">
         <v>0</v>
       </c>
@@ -6357,8 +6849,14 @@
       <c r="X100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6425,8 +6923,14 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6434,26 +6938,26 @@
         <v>0</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>-100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>100</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
         <v>0</v>
       </c>
@@ -6461,17 +6965,17 @@
         <v>0</v>
       </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>-300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>300</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
       <c r="R102" s="3">
         <v>0</v>
       </c>
@@ -6491,6 +6995,12 @@
         <v>0</v>
       </c>
       <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/THCT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/THCT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="92">
   <si>
     <t>THCT</t>
   </si>
@@ -3357,11 +3357,11 @@
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>4</v>
+      <c r="D48" s="3">
+        <v>0</v>
+      </c>
+      <c r="E48" s="3">
+        <v>0</v>
       </c>
       <c r="F48" s="3">
         <v>0</v>

--- a/AAII_Financials/Quarterly/THCT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/THCT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="92">
   <si>
     <t>THCT</t>
   </si>
@@ -3357,8 +3357,8 @@
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3">
-        <v>0</v>
+      <c r="D48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E48" s="3">
         <v>0</v>
